--- a/Dados/BR_TRI/tabPSTRI_2016.xlsx
+++ b/Dados/BR_TRI/tabPSTRI_2016.xlsx
@@ -16,12 +16,9 @@
     <sheet name="N PRINCIPAL" sheetId="7" r:id="rId7"/>
     <sheet name="HABITUAL PRINCIPAL" sheetId="8" r:id="rId8"/>
     <sheet name="EFETIVA PRINCIPAL" sheetId="9" r:id="rId9"/>
-    <sheet name="N P&amp;S" sheetId="10" r:id="rId10"/>
-    <sheet name="HABITUAL P&amp;S" sheetId="11" r:id="rId11"/>
-    <sheet name="EFETIVA P&amp;S" sheetId="12" r:id="rId12"/>
-    <sheet name="N SECUNDÁRIO" sheetId="13" r:id="rId13"/>
-    <sheet name="HABITUAL SECUNDÁRIO" sheetId="14" r:id="rId14"/>
-    <sheet name="EFETIVA SECUNDÁRIO" sheetId="15" r:id="rId15"/>
+    <sheet name="N SECUNDÁRIO" sheetId="10" r:id="rId10"/>
+    <sheet name="HABITUAL SECUNDÁRIO" sheetId="11" r:id="rId11"/>
+    <sheet name="EFETIVA SECUNDÁRIO" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -540,7 +537,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -549,7 +546,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>cod_SCN_PR</t>
+          <t>cod_SCN_SEC</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -604,31 +601,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D2">
-        <v>15343.91576291</v>
+        <v>3458.4390643</v>
       </c>
       <c r="E2">
-        <v>3697.732070836978</v>
+        <v>3446.153844309275</v>
       </c>
       <c r="F2">
-        <v>8052.148806933439</v>
+        <v>-3337.226561484008</v>
       </c>
       <c r="G2">
-        <v>22635.68271888656</v>
+        <v>10254.10469008401</v>
       </c>
       <c r="H2">
-        <v>13673222.46769633</v>
+        <v>11875976.3186476</v>
       </c>
       <c r="I2">
-        <v>0.2409901180359254</v>
+        <v>0.9964477558336822</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -637,31 +634,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3">
-        <v>9180.08555383</v>
+        <v>311039.28763749</v>
       </c>
       <c r="E3">
-        <v>2918.859462173082</v>
+        <v>15264.92361699928</v>
       </c>
       <c r="F3">
-        <v>3424.221535646642</v>
+        <v>280937.5216134452</v>
       </c>
       <c r="G3">
-        <v>14935.94957201336</v>
+        <v>341141.0536615349</v>
       </c>
       <c r="H3">
-        <v>8519740.559917334</v>
+        <v>233017893.0328223</v>
       </c>
       <c r="I3">
-        <v>0.3179555838622127</v>
+        <v>0.04907715592118458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -670,31 +667,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4">
-        <v>13086.16142245</v>
+        <v>324589.35246131</v>
       </c>
       <c r="E4">
-        <v>3264.434639215066</v>
+        <v>14781.47000521157</v>
       </c>
       <c r="F4">
-        <v>6648.838172367742</v>
+        <v>295440.9359508721</v>
       </c>
       <c r="G4">
-        <v>19523.48467253226</v>
+        <v>353737.7689717479</v>
       </c>
       <c r="H4">
-        <v>10656533.5137072</v>
+        <v>218491855.5149693</v>
       </c>
       <c r="I4">
-        <v>0.2494570052922286</v>
+        <v>0.04553898608542149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -703,26 +700,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D5">
-        <v>9949.13196594</v>
+        <v>301346.15388792</v>
       </c>
       <c r="E5">
-        <v>2377.67559423142</v>
+        <v>15781.62937145135</v>
       </c>
       <c r="F5">
-        <v>5260.459017787678</v>
+        <v>270225.4665699309</v>
       </c>
       <c r="G5">
-        <v>14637.80491409232</v>
+        <v>332466.8412059091</v>
       </c>
       <c r="H5">
-        <v>5653341.231403735</v>
+        <v>249059825.6178559</v>
       </c>
       <c r="I5">
-        <v>0.238983220081027</v>
+        <v>0.05237043568613464</v>
       </c>
     </row>
     <row r="6">
@@ -736,31 +733,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D6">
-        <v>9259275.770291969</v>
+        <v>259757.0994106</v>
       </c>
       <c r="E6">
-        <v>111844.6458332813</v>
+        <v>12820.06298724108</v>
       </c>
       <c r="F6">
-        <v>9038722.989001511</v>
+        <v>234476.4923051903</v>
       </c>
       <c r="G6">
-        <v>9479828.551582428</v>
+        <v>285037.7065160097</v>
       </c>
       <c r="H6">
-        <v>12509224801.57214</v>
+        <v>164354014.9968288</v>
       </c>
       <c r="I6">
-        <v>0.01207920021046685</v>
+        <v>0.0493540427435106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -769,31 +766,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7">
-        <v>9168746.64576095</v>
+        <v>1761.67673115</v>
       </c>
       <c r="E7">
-        <v>118091.7341305547</v>
+        <v>1013.240774733644</v>
       </c>
       <c r="F7">
-        <v>8935874.877820164</v>
+        <v>-236.3900454887253</v>
       </c>
       <c r="G7">
-        <v>9401618.413701735</v>
+        <v>3759.743507788725</v>
       </c>
       <c r="H7">
-        <v>13945657669.96161</v>
+        <v>1026656.867582836</v>
       </c>
       <c r="I7">
-        <v>0.01287981211533998</v>
+        <v>0.5751570403454292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -802,31 +799,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D8">
-        <v>8800423.05348221</v>
+        <v>96.89532887</v>
       </c>
       <c r="E8">
-        <v>107840.8912834326</v>
+        <v>102.6823730176802</v>
       </c>
       <c r="F8">
-        <v>8587765.502177903</v>
+        <v>-105.5898485815139</v>
       </c>
       <c r="G8">
-        <v>9013080.604786517</v>
+        <v>299.380506321514</v>
       </c>
       <c r="H8">
-        <v>11629657832.80513</v>
+        <v>10543.66972854201</v>
       </c>
       <c r="I8">
-        <v>0.01225405763200911</v>
+        <v>1.059724696898902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -835,26 +832,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D9">
-        <v>8707322.4524145</v>
+        <v>2498.15698059</v>
       </c>
       <c r="E9">
-        <v>120244.7568178</v>
+        <v>1380.697538756612</v>
       </c>
       <c r="F9">
-        <v>8470205.017295679</v>
+        <v>-224.5185665933873</v>
       </c>
       <c r="G9">
-        <v>8944439.88753332</v>
+        <v>5220.832527773387</v>
       </c>
       <c r="H9">
-        <v>14458801542.17185</v>
+        <v>1906325.693528565</v>
       </c>
       <c r="I9">
-        <v>0.0138096134000937</v>
+        <v>0.5526864602522004</v>
       </c>
     </row>
     <row r="10">
@@ -868,31 +865,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10">
-        <v>423582.77828629</v>
+        <v>1668.32725431</v>
       </c>
       <c r="E10">
-        <v>22556.42150895264</v>
+        <v>1042.082871330296</v>
       </c>
       <c r="F10">
-        <v>379102.4952768099</v>
+        <v>-386.6148834624339</v>
       </c>
       <c r="G10">
-        <v>468063.0612957701</v>
+        <v>3723.269392082434</v>
       </c>
       <c r="H10">
-        <v>508792151.2895411</v>
+        <v>1085936.710719995</v>
       </c>
       <c r="I10">
-        <v>0.05325150753345138</v>
+        <v>0.6246273736991063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -901,31 +898,31 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D11">
-        <v>415634.5520539</v>
+        <v>98330.24473019999</v>
       </c>
       <c r="E11">
-        <v>20157.71764785337</v>
+        <v>7937.584045296284</v>
       </c>
       <c r="F11">
-        <v>375884.4088210365</v>
+        <v>82677.67392652969</v>
       </c>
       <c r="G11">
-        <v>455384.6952867635</v>
+        <v>113982.8155338703</v>
       </c>
       <c r="H11">
-        <v>406333580.7705793</v>
+        <v>63005240.47614212</v>
       </c>
       <c r="I11">
-        <v>0.04849865716948213</v>
+        <v>0.08072372917483879</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -934,31 +931,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12">
-        <v>421274.3069343</v>
+        <v>90334.05234912</v>
       </c>
       <c r="E12">
-        <v>21847.95118010128</v>
+        <v>7689.443576594352</v>
       </c>
       <c r="F12">
-        <v>378191.0966262065</v>
+        <v>75170.80376660018</v>
       </c>
       <c r="G12">
-        <v>464357.5172423935</v>
+        <v>105497.3009316398</v>
       </c>
       <c r="H12">
-        <v>477332970.7680888</v>
+        <v>59127542.51762813</v>
       </c>
       <c r="I12">
-        <v>0.05186158002156202</v>
+        <v>0.08512231408457632</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -967,26 +964,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D13">
-        <v>430765.07163353</v>
+        <v>86647.96542678001</v>
       </c>
       <c r="E13">
-        <v>23530.59323462293</v>
+        <v>7356.382165867813</v>
       </c>
       <c r="F13">
-        <v>384363.7643143893</v>
+        <v>72141.49947278009</v>
       </c>
       <c r="G13">
-        <v>477166.3789526707</v>
+        <v>101154.4313807799</v>
       </c>
       <c r="H13">
-        <v>553688817.9732825</v>
+        <v>54116358.57029801</v>
       </c>
       <c r="I13">
-        <v>0.05462511885049352</v>
+        <v>0.08489965263043786</v>
       </c>
     </row>
     <row r="14">
@@ -1000,31 +997,31 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D14">
-        <v>10628962.3223004</v>
+        <v>100947.11923189</v>
       </c>
       <c r="E14">
-        <v>120807.8813137851</v>
+        <v>8660.571563729116</v>
       </c>
       <c r="F14">
-        <v>10390734.43014649</v>
+        <v>83868.84845983374</v>
       </c>
       <c r="G14">
-        <v>10867190.21445431</v>
+        <v>118025.3900039463</v>
       </c>
       <c r="H14">
-        <v>14594544187.52559</v>
+        <v>75005499.81047338</v>
       </c>
       <c r="I14">
-        <v>0.01136591490782883</v>
+        <v>0.08579315219322448</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1033,31 +1030,31 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D15">
-        <v>10542837.51562208</v>
+        <v>9762.081348129999</v>
       </c>
       <c r="E15">
-        <v>121735.8527686953</v>
+        <v>2900.113576090164</v>
       </c>
       <c r="F15">
-        <v>10302779.70408478</v>
+        <v>4043.183402685649</v>
       </c>
       <c r="G15">
-        <v>10782895.32715937</v>
+        <v>15480.97929357435</v>
       </c>
       <c r="H15">
-        <v>14819617849.32145</v>
+        <v>8410658.754222481</v>
       </c>
       <c r="I15">
-        <v>0.01154678259892657</v>
+        <v>0.2970794313904896</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1066,31 +1063,31 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D16">
-        <v>10399723.71115688</v>
+        <v>6240.37832053</v>
       </c>
       <c r="E16">
-        <v>119165.4688039075</v>
+        <v>1762.010023864712</v>
       </c>
       <c r="F16">
-        <v>10164734.58510019</v>
+        <v>2765.771122932795</v>
       </c>
       <c r="G16">
-        <v>10634712.83721357</v>
+        <v>9714.985518127203</v>
       </c>
       <c r="H16">
-        <v>14200408955.25505</v>
+        <v>3104679.324199724</v>
       </c>
       <c r="I16">
-        <v>0.0114585225640241</v>
+        <v>0.2823562824817748</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1099,26 +1096,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D17">
-        <v>10167806.37843322</v>
+        <v>3695.01856301</v>
       </c>
       <c r="E17">
-        <v>114604.1855334678</v>
+        <v>1758.807726186343</v>
       </c>
       <c r="F17">
-        <v>9941811.904771857</v>
+        <v>226.7261572762977</v>
       </c>
       <c r="G17">
-        <v>10393800.85209458</v>
+        <v>7163.310968743703</v>
       </c>
       <c r="H17">
-        <v>13134119341.78951</v>
+        <v>3093404.617692774</v>
       </c>
       <c r="I17">
-        <v>0.01127127929742574</v>
+        <v>0.4759942869552461</v>
       </c>
     </row>
     <row r="18">
@@ -1132,31 +1129,31 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D18">
-        <v>771939.96667272</v>
+        <v>6549.13985814</v>
       </c>
       <c r="E18">
-        <v>28035.02251542931</v>
+        <v>2291.62091094785</v>
       </c>
       <c r="F18">
-        <v>716656.120555174</v>
+        <v>2030.163005852225</v>
       </c>
       <c r="G18">
-        <v>827223.8127902661</v>
+        <v>11068.11671042777</v>
       </c>
       <c r="H18">
-        <v>785962487.4406282</v>
+        <v>5251526.399493456</v>
       </c>
       <c r="I18">
-        <v>0.03631762018524342</v>
+        <v>0.3499117381192538</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1165,31 +1162,31 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19">
-        <v>764447.7570251999</v>
+        <v>63426.13493735</v>
       </c>
       <c r="E19">
-        <v>28171.36784844893</v>
+        <v>6316.339996038297</v>
       </c>
       <c r="F19">
-        <v>708895.0438359277</v>
+        <v>50970.5869464432</v>
       </c>
       <c r="G19">
-        <v>820000.4702144722</v>
+        <v>75881.68292825681</v>
       </c>
       <c r="H19">
-        <v>793625966.4526222</v>
+        <v>39896150.94555307</v>
       </c>
       <c r="I19">
-        <v>0.03685192034322401</v>
+        <v>0.09958576227729066</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1198,31 +1195,31 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D20">
-        <v>822285.13776304</v>
+        <v>76117.90706201999</v>
       </c>
       <c r="E20">
-        <v>29161.49307046611</v>
+        <v>7499.451464844291</v>
       </c>
       <c r="F20">
-        <v>764779.9406625823</v>
+        <v>61329.3146676219</v>
       </c>
       <c r="G20">
-        <v>879790.3348634978</v>
+        <v>90906.49945641808</v>
       </c>
       <c r="H20">
-        <v>850392678.0988429</v>
+        <v>56241772.27355518</v>
       </c>
       <c r="I20">
-        <v>0.03546396709759048</v>
+        <v>0.09852414174674856</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1231,26 +1228,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D21">
-        <v>871897.6678574299</v>
+        <v>64272.57492896</v>
       </c>
       <c r="E21">
-        <v>38188.8855915996</v>
+        <v>6599.870904306595</v>
       </c>
       <c r="F21">
-        <v>796590.8449973937</v>
+        <v>51257.91630799588</v>
       </c>
       <c r="G21">
-        <v>947204.4907174662</v>
+        <v>77287.23354992412</v>
       </c>
       <c r="H21">
-        <v>1458390982.728283</v>
+        <v>43558295.95351275</v>
       </c>
       <c r="I21">
-        <v>0.04379973361489038</v>
+        <v>0.1026856464300891</v>
       </c>
     </row>
     <row r="22">
@@ -1264,31 +1261,31 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D22">
-        <v>7637693.99190939</v>
+        <v>58040.53036008</v>
       </c>
       <c r="E22">
-        <v>86275.11644804008</v>
+        <v>6239.587227334642</v>
       </c>
       <c r="F22">
-        <v>7467563.211423595</v>
+        <v>45736.3354937078</v>
       </c>
       <c r="G22">
-        <v>7807824.772395185</v>
+        <v>70344.7252264522</v>
       </c>
       <c r="H22">
-        <v>7443395718.122875</v>
+        <v>38932448.76751761</v>
       </c>
       <c r="I22">
-        <v>0.0112959640094813</v>
+        <v>0.1075039664287114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1297,31 +1294,31 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D23">
-        <v>7469911.25628602</v>
+        <v>292293.1046609</v>
       </c>
       <c r="E23">
-        <v>85951.58911974775</v>
+        <v>13197.35119792997</v>
       </c>
       <c r="F23">
-        <v>7300418.457632496</v>
+        <v>266268.5015993533</v>
       </c>
       <c r="G23">
-        <v>7639404.054939545</v>
+        <v>318317.7077224467</v>
       </c>
       <c r="H23">
-        <v>7387675672.209939</v>
+        <v>174170078.6415035</v>
       </c>
       <c r="I23">
-        <v>0.0115063735258459</v>
+        <v>0.04515108631536382</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1330,31 +1327,31 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D24">
-        <v>7185179.44457589</v>
+        <v>292827.09995855</v>
       </c>
       <c r="E24">
-        <v>81165.53424948994</v>
+        <v>15087.03379484407</v>
       </c>
       <c r="F24">
-        <v>7025124.538144918</v>
+        <v>263076.1249334599</v>
       </c>
       <c r="G24">
-        <v>7345234.351006862</v>
+        <v>322578.0749836401</v>
       </c>
       <c r="H24">
-        <v>6587843950.005124</v>
+        <v>227618588.7267671</v>
       </c>
       <c r="I24">
-        <v>0.01129624317326716</v>
+        <v>0.0515219861719754</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1363,26 +1360,26 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D25">
-        <v>7129594.31741052</v>
+        <v>261534.12509579</v>
       </c>
       <c r="E25">
-        <v>84457.56855122399</v>
+        <v>14181.50403892878</v>
       </c>
       <c r="F25">
-        <v>6963047.662394343</v>
+        <v>233568.8153988917</v>
       </c>
       <c r="G25">
-        <v>7296140.972426698</v>
+        <v>289499.4347926882</v>
       </c>
       <c r="H25">
-        <v>7133080885.584699</v>
+        <v>201115056.8061534</v>
       </c>
       <c r="I25">
-        <v>0.01184605530008601</v>
+        <v>0.05422429686273116</v>
       </c>
     </row>
     <row r="26">
@@ -1396,31 +1393,31 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D26">
-        <v>17480304.82977214</v>
+        <v>300849.50264591</v>
       </c>
       <c r="E26">
-        <v>129822.5480828234</v>
+        <v>15999.42043444954</v>
       </c>
       <c r="F26">
-        <v>17224300.40648878</v>
+        <v>269299.3408159621</v>
       </c>
       <c r="G26">
-        <v>17736309.2530555</v>
+        <v>332399.664475858</v>
       </c>
       <c r="H26">
-        <v>16853893990.71699</v>
+        <v>255981454.2382815</v>
       </c>
       <c r="I26">
-        <v>0.007426789712597686</v>
+        <v>0.05318081065030156</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1429,31 +1426,31 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D27">
-        <v>17374684.37592664</v>
+        <v>59409.71693046</v>
       </c>
       <c r="E27">
-        <v>137083.0880385058</v>
+        <v>5993.978261845647</v>
       </c>
       <c r="F27">
-        <v>17104362.48336287</v>
+        <v>47589.85227091073</v>
       </c>
       <c r="G27">
-        <v>17645006.26849041</v>
+        <v>71229.58159000927</v>
       </c>
       <c r="H27">
-        <v>18791773026.17273</v>
+        <v>35927775.40347816</v>
       </c>
       <c r="I27">
-        <v>0.007889817453515312</v>
+        <v>0.1008922205244925</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1462,31 +1459,31 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D28">
-        <v>17057063.53201558</v>
+        <v>63655.49703445</v>
       </c>
       <c r="E28">
-        <v>126329.8187227678</v>
+        <v>6906.042966569416</v>
       </c>
       <c r="F28">
-        <v>16807946.61925108</v>
+        <v>50037.08041163966</v>
       </c>
       <c r="G28">
-        <v>17306180.44478008</v>
+        <v>77273.91365726035</v>
       </c>
       <c r="H28">
-        <v>15959223098.52737</v>
+        <v>47693429.45610291</v>
       </c>
       <c r="I28">
-        <v>0.007406305222798205</v>
+        <v>0.1084909126203493</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1495,26 +1492,26 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D29">
-        <v>17601479.83745225</v>
+        <v>60551.21816547</v>
       </c>
       <c r="E29">
-        <v>127957.6218201928</v>
+        <v>6013.053997185993</v>
       </c>
       <c r="F29">
-        <v>17349152.96771703</v>
+        <v>48693.73698477993</v>
       </c>
       <c r="G29">
-        <v>17853806.70718747</v>
+        <v>72408.69934616008</v>
       </c>
       <c r="H29">
-        <v>16373152981.87947</v>
+        <v>36156818.37307444</v>
       </c>
       <c r="I29">
-        <v>0.007269708172373429</v>
+        <v>0.0993052523031651</v>
       </c>
     </row>
     <row r="30">
@@ -1528,31 +1525,31 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D30">
-        <v>4469868.79760986</v>
+        <v>69838.94431741</v>
       </c>
       <c r="E30">
-        <v>69678.71527386185</v>
+        <v>8168.955236257648</v>
       </c>
       <c r="F30">
-        <v>4332465.399030514</v>
+        <v>53730.11957957211</v>
       </c>
       <c r="G30">
-        <v>4607272.196189206</v>
+        <v>85947.76905524789</v>
       </c>
       <c r="H30">
-        <v>4855123362.215908</v>
+        <v>66731829.65198124</v>
       </c>
       <c r="I30">
-        <v>0.01558853703068883</v>
+        <v>0.1169684810688243</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1561,31 +1558,31 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D31">
-        <v>4475875.07824458</v>
+        <v>28032.15923914</v>
       </c>
       <c r="E31">
-        <v>65134.4023696709</v>
+        <v>5769.87329621653</v>
       </c>
       <c r="F31">
-        <v>4347432.867235781</v>
+        <v>16654.21983316239</v>
       </c>
       <c r="G31">
-        <v>4604317.289253379</v>
+        <v>39410.09864511761</v>
       </c>
       <c r="H31">
-        <v>4242490372.05419</v>
+        <v>33291437.8543926</v>
       </c>
       <c r="I31">
-        <v>0.01455232803217921</v>
+        <v>0.2058304980003225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1594,31 +1591,31 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D32">
-        <v>4471648.13291893</v>
+        <v>25789.89221866</v>
       </c>
       <c r="E32">
-        <v>67665.67584823644</v>
+        <v>4349.026941761726</v>
       </c>
       <c r="F32">
-        <v>4338214.360608782</v>
+        <v>17213.80007972578</v>
       </c>
       <c r="G32">
-        <v>4605081.905229078</v>
+        <v>34365.98435759422</v>
       </c>
       <c r="H32">
-        <v>4578643687.998608</v>
+        <v>18914035.34016936</v>
       </c>
       <c r="I32">
-        <v>0.01513215571460153</v>
+        <v>0.1686330018322075</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1627,26 +1624,26 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D33">
-        <v>4584881.32708013</v>
+        <v>26528.49962733</v>
       </c>
       <c r="E33">
-        <v>74028.33981940788</v>
+        <v>4957.361660875321</v>
       </c>
       <c r="F33">
-        <v>4438900.657913156</v>
+        <v>16752.79785794418</v>
       </c>
       <c r="G33">
-        <v>4730861.996247103</v>
+        <v>36304.20139671582</v>
       </c>
       <c r="H33">
-        <v>5480195096.417729</v>
+        <v>24575434.63671652</v>
       </c>
       <c r="I33">
-        <v>0.01614618450038545</v>
+        <v>0.1868692813583842</v>
       </c>
     </row>
     <row r="34">
@@ -1660,31 +1657,31 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D34">
-        <v>1192194.241626</v>
+        <v>37403.39887985</v>
       </c>
       <c r="E34">
-        <v>41428.43737336933</v>
+        <v>5700.350291634797</v>
       </c>
       <c r="F34">
-        <v>1110499.16342946</v>
+        <v>26162.55581773338</v>
       </c>
       <c r="G34">
-        <v>1273889.31982254</v>
+        <v>48644.24194196662</v>
       </c>
       <c r="H34">
-        <v>1716315423.199184</v>
+        <v>32493993.44734092</v>
       </c>
       <c r="I34">
-        <v>0.03474973785887965</v>
+        <v>0.1524019330421251</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1693,31 +1690,31 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D35">
-        <v>1192172.25175582</v>
+        <v>14000.94688724</v>
       </c>
       <c r="E35">
-        <v>44913.12267880817</v>
+        <v>3957.407507431382</v>
       </c>
       <c r="F35">
-        <v>1103605.525566562</v>
+        <v>6197.111254689671</v>
       </c>
       <c r="G35">
-        <v>1280738.977945077</v>
+        <v>21804.78251979033</v>
       </c>
       <c r="H35">
-        <v>2017188588.761673</v>
+        <v>15661074.17987427</v>
       </c>
       <c r="I35">
-        <v>0.0376733501494105</v>
+        <v>0.2826528476468997</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1726,31 +1723,31 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D36">
-        <v>1219927.86544491</v>
+        <v>10636.0459403</v>
       </c>
       <c r="E36">
-        <v>40920.38408961597</v>
+        <v>3403.794153048275</v>
       </c>
       <c r="F36">
-        <v>1139234.646246097</v>
+        <v>3923.911784910604</v>
       </c>
       <c r="G36">
-        <v>1300621.084643723</v>
+        <v>17348.1800956894</v>
       </c>
       <c r="H36">
-        <v>1674477834.041696</v>
+        <v>11585814.63632563</v>
       </c>
       <c r="I36">
-        <v>0.03354328173714782</v>
+        <v>0.3200243936660044</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1759,26 +1756,26 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D37">
-        <v>1242441.29119833</v>
+        <v>12967.27846432</v>
       </c>
       <c r="E37">
-        <v>37341.19314248681</v>
+        <v>5185.625097043435</v>
       </c>
       <c r="F37">
-        <v>1168806.081010835</v>
+        <v>2741.451118169072</v>
       </c>
       <c r="G37">
-        <v>1316076.501385825</v>
+        <v>23193.10581047093</v>
       </c>
       <c r="H37">
-        <v>1394364705.304504</v>
+        <v>26890707.64708673</v>
       </c>
       <c r="I37">
-        <v>0.03005469425961477</v>
+        <v>0.3999008050387671</v>
       </c>
     </row>
     <row r="38">
@@ -1792,31 +1789,31 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D38">
-        <v>1256167.51779463</v>
+        <v>12423.05113398</v>
       </c>
       <c r="E38">
-        <v>50051.38200287916</v>
+        <v>3995.778989652155</v>
       </c>
       <c r="F38">
-        <v>1157468.367505208</v>
+        <v>4543.548605951779</v>
       </c>
       <c r="G38">
-        <v>1354866.668084052</v>
+        <v>20302.55366200822</v>
       </c>
       <c r="H38">
-        <v>2505140840.398136</v>
+        <v>15966249.7341456</v>
       </c>
       <c r="I38">
-        <v>0.03984451221183545</v>
+        <v>0.3216423201159295</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1825,31 +1822,31 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D39">
-        <v>1187826.76162042</v>
+        <v>10649.34072323</v>
       </c>
       <c r="E39">
-        <v>49029.33473771318</v>
+        <v>2866.959821331561</v>
       </c>
       <c r="F39">
-        <v>1091143.044124077</v>
+        <v>4995.820541448395</v>
       </c>
       <c r="G39">
-        <v>1284510.479116763</v>
+        <v>16302.8609050116</v>
       </c>
       <c r="H39">
-        <v>2403875664.822728</v>
+        <v>8219458.617129494</v>
       </c>
       <c r="I39">
-        <v>0.04127650287221001</v>
+        <v>0.2692147707395353</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1858,31 +1855,31 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D40">
-        <v>1202613.65034552</v>
+        <v>16304.94298204</v>
       </c>
       <c r="E40">
-        <v>47462.69153404699</v>
+        <v>3535.362218753651</v>
       </c>
       <c r="F40">
-        <v>1109019.285167154</v>
+        <v>9333.362318468344</v>
       </c>
       <c r="G40">
-        <v>1296208.015523886</v>
+        <v>23276.52364561165</v>
       </c>
       <c r="H40">
-        <v>2252707087.656096</v>
+        <v>12498786.01779074</v>
       </c>
       <c r="I40">
-        <v>0.03946628372329767</v>
+        <v>0.2168276345797637</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1891,26 +1888,26 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D41">
-        <v>1247109.11622469</v>
+        <v>9203.604531659999</v>
       </c>
       <c r="E41">
-        <v>57254.65890597859</v>
+        <v>2737.934594772227</v>
       </c>
       <c r="F41">
-        <v>1134205.416906144</v>
+        <v>3804.516489765638</v>
       </c>
       <c r="G41">
-        <v>1360012.815543236</v>
+        <v>14602.69257355436</v>
       </c>
       <c r="H41">
-        <v>3278095966.439954</v>
+        <v>7496285.84525056</v>
       </c>
       <c r="I41">
-        <v>0.04590990328039835</v>
+        <v>0.2974850326688692</v>
       </c>
     </row>
     <row r="42">
@@ -1924,31 +1921,31 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D42">
-        <v>559330.74794464</v>
+        <v>15004.98034913</v>
       </c>
       <c r="E42">
-        <v>28582.21498305525</v>
+        <v>3558.04226756471</v>
       </c>
       <c r="F42">
-        <v>502967.8620595937</v>
+        <v>7988.675614881428</v>
       </c>
       <c r="G42">
-        <v>615693.6338296863</v>
+        <v>22021.28508337857</v>
       </c>
       <c r="H42">
-        <v>816943013.337588</v>
+        <v>12659664.77777702</v>
       </c>
       <c r="I42">
-        <v>0.05110073974671635</v>
+        <v>0.2371240871215808</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1957,31 +1954,31 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D43">
-        <v>515215.29409747</v>
+        <v>1041581.0592419</v>
       </c>
       <c r="E43">
-        <v>28914.01852965231</v>
+        <v>33594.10184261204</v>
       </c>
       <c r="F43">
-        <v>458198.1060373057</v>
+        <v>975334.9502651014</v>
       </c>
       <c r="G43">
-        <v>572232.4821576343</v>
+        <v>1107827.168218699</v>
       </c>
       <c r="H43">
-        <v>836020467.5330769</v>
+        <v>1128563678.61179</v>
       </c>
       <c r="I43">
-        <v>0.0561202644038402</v>
+        <v>0.03225298842037607</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1990,31 +1987,31 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D44">
-        <v>522412.55976189</v>
+        <v>1078186.40537896</v>
       </c>
       <c r="E44">
-        <v>25033.92670395774</v>
+        <v>39053.1399932727</v>
       </c>
       <c r="F44">
-        <v>473046.7441697018</v>
+        <v>1001175.310395646</v>
       </c>
       <c r="G44">
-        <v>571778.3753540781</v>
+        <v>1155197.500362274</v>
       </c>
       <c r="H44">
-        <v>626697486.2191283</v>
+        <v>1525147743.334156</v>
       </c>
       <c r="I44">
-        <v>0.0479198408157873</v>
+        <v>0.03622113931175596</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2023,26 +2020,26 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D45">
-        <v>566959.71719596</v>
+        <v>1069219.72634086</v>
       </c>
       <c r="E45">
-        <v>28177.94499001743</v>
+        <v>32691.8444563985</v>
       </c>
       <c r="F45">
-        <v>511394.0341693293</v>
+        <v>1004752.829721404</v>
       </c>
       <c r="G45">
-        <v>622525.4002225908</v>
+        <v>1133686.622960315</v>
       </c>
       <c r="H45">
-        <v>793996583.8604486</v>
+        <v>1068756693.961354</v>
       </c>
       <c r="I45">
-        <v>0.0497000829783436</v>
+        <v>0.03057542210549954</v>
       </c>
     </row>
     <row r="46">
@@ -2056,31 +2053,31 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D46">
-        <v>26300636.85434999</v>
+        <v>1051748.71308172</v>
       </c>
       <c r="E46">
-        <v>150615.9571522586</v>
+        <v>32162.41474977502</v>
       </c>
       <c r="F46">
-        <v>26003628.73197485</v>
+        <v>988325.8288369621</v>
       </c>
       <c r="G46">
-        <v>26597644.97672513</v>
+        <v>1115171.597326478</v>
       </c>
       <c r="H46">
-        <v>22685166548.89101</v>
+        <v>1034420922.536546</v>
       </c>
       <c r="I46">
-        <v>0.005726703805172213</v>
+        <v>0.03057994209998718</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2089,31 +2086,31 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D47">
-        <v>26501923.87792649</v>
+        <v>487329.02084553</v>
       </c>
       <c r="E47">
-        <v>152038.8525064263</v>
+        <v>19254.3831561773</v>
       </c>
       <c r="F47">
-        <v>26202109.86774592</v>
+        <v>449360.2139751755</v>
       </c>
       <c r="G47">
-        <v>26801737.88810707</v>
+        <v>525297.8277158845</v>
       </c>
       <c r="H47">
-        <v>23115812671.47086</v>
+        <v>370731270.724884</v>
       </c>
       <c r="I47">
-        <v>0.005736898694855124</v>
+        <v>0.03951002778937807</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2122,31 +2119,31 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D48">
-        <v>26513454.6413493</v>
+        <v>521263.58232527</v>
       </c>
       <c r="E48">
-        <v>151366.3509261938</v>
+        <v>19213.45740128375</v>
       </c>
       <c r="F48">
-        <v>26214966.77506088</v>
+        <v>483375.4792651063</v>
       </c>
       <c r="G48">
-        <v>26811942.50763772</v>
+        <v>559151.6853854337</v>
       </c>
       <c r="H48">
-        <v>22911772192.71164</v>
+        <v>369156945.3109452</v>
       </c>
       <c r="I48">
-        <v>0.005709039164218494</v>
+        <v>0.03685938947734602</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2155,26 +2152,26 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D49">
-        <v>26551364.36808545</v>
+        <v>514996.39662073</v>
       </c>
       <c r="E49">
-        <v>157674.7810194371</v>
+        <v>20543.15087741736</v>
       </c>
       <c r="F49">
-        <v>26240436.55179071</v>
+        <v>474486.1958084557</v>
       </c>
       <c r="G49">
-        <v>26862292.18438019</v>
+        <v>555506.5974330043</v>
       </c>
       <c r="H49">
-        <v>24861336569.52745</v>
+        <v>422021047.9723335</v>
       </c>
       <c r="I49">
-        <v>0.005938481308665293</v>
+        <v>0.03988989245792024</v>
       </c>
     </row>
     <row r="50">
@@ -2188,245 +2185,26 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D50">
-        <v>9914008.145317551</v>
+        <v>521100.284754</v>
       </c>
       <c r="E50">
-        <v>105852.4778099754</v>
+        <v>24273.10538604361</v>
       </c>
       <c r="F50">
-        <v>9705271.658974906</v>
+        <v>473234.7757386789</v>
       </c>
       <c r="G50">
-        <v>10122744.6316602</v>
+        <v>568965.7937693212</v>
       </c>
       <c r="H50">
-        <v>11204747058.51134</v>
+        <v>589183645.0819795</v>
       </c>
       <c r="I50">
-        <v>0.01067706181580759</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>10208155.4565117</v>
-      </c>
-      <c r="E51">
-        <v>110246.7909160082</v>
-      </c>
-      <c r="F51">
-        <v>9990753.575682124</v>
-      </c>
-      <c r="G51">
-        <v>10425557.33734128</v>
-      </c>
-      <c r="H51">
-        <v>12154354907.27804</v>
-      </c>
-      <c r="I51">
-        <v>0.01079987382497028</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>10310038.32915247</v>
-      </c>
-      <c r="E52">
-        <v>106059.546485999</v>
-      </c>
-      <c r="F52">
-        <v>10100893.51237903</v>
-      </c>
-      <c r="G52">
-        <v>10519183.14592591</v>
-      </c>
-      <c r="H52">
-        <v>11248627400.81578</v>
-      </c>
-      <c r="I52">
-        <v>0.01028701767151602</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>10127667.95011319</v>
-      </c>
-      <c r="E53">
-        <v>99348.57264093331</v>
-      </c>
-      <c r="F53">
-        <v>9931756.882131832</v>
-      </c>
-      <c r="G53">
-        <v>10323579.01809455</v>
-      </c>
-      <c r="H53">
-        <v>9870138885.790804</v>
-      </c>
-      <c r="I53">
-        <v>0.009809619858224415</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>112788859.1206165</v>
-      </c>
-      <c r="E54">
-        <v>169902.7655305007</v>
-      </c>
-      <c r="F54">
-        <v>112453818.2502422</v>
-      </c>
-      <c r="G54">
-        <v>113123899.9909909</v>
-      </c>
-      <c r="H54">
-        <v>28866949734.91231</v>
-      </c>
-      <c r="I54">
-        <v>0.001506378970894692</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>113207869.0917512</v>
-      </c>
-      <c r="E55">
-        <v>186074.1741944217</v>
-      </c>
-      <c r="F55">
-        <v>112840938.9062322</v>
-      </c>
-      <c r="G55">
-        <v>113574799.2772701</v>
-      </c>
-      <c r="H55">
-        <v>34623598302.136</v>
-      </c>
-      <c r="I55">
-        <v>0.001643650531427412</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>114434935.4737625</v>
-      </c>
-      <c r="E56">
-        <v>178332.3027373487</v>
-      </c>
-      <c r="F56">
-        <v>114083271.9223281</v>
-      </c>
-      <c r="G56">
-        <v>114786599.0251969</v>
-      </c>
-      <c r="H56">
-        <v>31802410199.60539</v>
-      </c>
-      <c r="I56">
-        <v>0.001558372904210153</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>114470193.3730651</v>
-      </c>
-      <c r="E57">
-        <v>178987.4608358745</v>
-      </c>
-      <c r="F57">
-        <v>114117237.8783308</v>
-      </c>
-      <c r="G57">
-        <v>114823148.8677994</v>
-      </c>
-      <c r="H57">
-        <v>32036511136.47369</v>
-      </c>
-      <c r="I57">
-        <v>0.001563616305360329</v>
+        <v>0.04658048766467747</v>
       </c>
     </row>
   </sheetData>
@@ -2435,3798 +2213,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_PR</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>somaH</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>73758203.07230838</v>
-      </c>
-      <c r="E2">
-        <v>17774998.06451336</v>
-      </c>
-      <c r="F2">
-        <v>38706679.31492904</v>
-      </c>
-      <c r="G2">
-        <v>108809726.8296877</v>
-      </c>
-      <c r="H2">
-        <v>315950556193453.6</v>
-      </c>
-      <c r="I2">
-        <v>0.2409901180359255</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>44128671.25726081</v>
-      </c>
-      <c r="E3">
-        <v>14030957.43466601</v>
-      </c>
-      <c r="F3">
-        <v>16460232.92185341</v>
-      </c>
-      <c r="G3">
-        <v>71797109.59266822</v>
-      </c>
-      <c r="H3">
-        <v>196867766533409.3</v>
-      </c>
-      <c r="I3">
-        <v>0.3179555838622127</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>62905177.95771715</v>
-      </c>
-      <c r="E4">
-        <v>15692137.31070682</v>
-      </c>
-      <c r="F4">
-        <v>31960965.09457174</v>
-      </c>
-      <c r="G4">
-        <v>93849390.82086256</v>
-      </c>
-      <c r="H4">
-        <v>246243173378077.2</v>
-      </c>
-      <c r="I4">
-        <v>0.2494570052922285</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>47825477.36027358</v>
-      </c>
-      <c r="E5">
-        <v>11429486.58147044</v>
-      </c>
-      <c r="F5">
-        <v>25287026.49850537</v>
-      </c>
-      <c r="G5">
-        <v>70363928.2220418</v>
-      </c>
-      <c r="H5">
-        <v>130633163516012.8</v>
-      </c>
-      <c r="I5">
-        <v>0.238983220081027</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>61928601171101.06</v>
-      </c>
-      <c r="E6">
-        <v>748047972299.8809</v>
-      </c>
-      <c r="F6">
-        <v>60453483076710.06</v>
-      </c>
-      <c r="G6">
-        <v>63403719265492.06</v>
-      </c>
-      <c r="H6">
-        <v>5.595757688619634E+23</v>
-      </c>
-      <c r="I6">
-        <v>0.01207920021046684</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>61323117309670.11</v>
-      </c>
-      <c r="E7">
-        <v>789830229275.5034</v>
-      </c>
-      <c r="F7">
-        <v>59765606420202.42</v>
-      </c>
-      <c r="G7">
-        <v>62880628199137.8</v>
-      </c>
-      <c r="H7">
-        <v>6.238317910773943E+23</v>
-      </c>
-      <c r="I7">
-        <v>0.01287981211533997</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>58859667098874.84</v>
-      </c>
-      <c r="E8">
-        <v>721269752830.4829</v>
-      </c>
-      <c r="F8">
-        <v>57437354489609.92</v>
-      </c>
-      <c r="G8">
-        <v>60281979708139.75</v>
-      </c>
-      <c r="H8">
-        <v>5.202300563481459E+23</v>
-      </c>
-      <c r="I8">
-        <v>0.01225405763200911</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>58236984490067.49</v>
-      </c>
-      <c r="E9">
-        <v>804230241395.0852</v>
-      </c>
-      <c r="F9">
-        <v>56651077402463.29</v>
-      </c>
-      <c r="G9">
-        <v>59822891577671.7</v>
-      </c>
-      <c r="H9">
-        <v>6.46786281174397E+23</v>
-      </c>
-      <c r="I9">
-        <v>0.0138096134000937</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>84128622760.99663</v>
-      </c>
-      <c r="E10">
-        <v>4479975988.736101</v>
-      </c>
-      <c r="F10">
-        <v>75294304791.91776</v>
-      </c>
-      <c r="G10">
-        <v>92962940730.0755</v>
-      </c>
-      <c r="H10">
-        <v>2.007018485965201E+19</v>
-      </c>
-      <c r="I10">
-        <v>0.05325150753345138</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>82550009652.52919</v>
-      </c>
-      <c r="E11">
-        <v>4003564617.475453</v>
-      </c>
-      <c r="F11">
-        <v>74655154204.7637</v>
-      </c>
-      <c r="G11">
-        <v>90444865100.29468</v>
-      </c>
-      <c r="H11">
-        <v>1.602852964630137E+19</v>
-      </c>
-      <c r="I11">
-        <v>0.04849865716948212</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>83670132648.83519</v>
-      </c>
-      <c r="E12">
-        <v>4339265279.782275</v>
-      </c>
-      <c r="F12">
-        <v>75113290083.12411</v>
-      </c>
-      <c r="G12">
-        <v>92226975214.54626</v>
-      </c>
-      <c r="H12">
-        <v>1.882922316832395E+19</v>
-      </c>
-      <c r="I12">
-        <v>0.05186158002156202</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>85555112407.27866</v>
-      </c>
-      <c r="E13">
-        <v>4673458183.51493</v>
-      </c>
-      <c r="F13">
-        <v>76339255958.00949</v>
-      </c>
-      <c r="G13">
-        <v>94770968856.54782</v>
-      </c>
-      <c r="H13">
-        <v>2.184121139306267E+19</v>
-      </c>
-      <c r="I13">
-        <v>0.05462511885049352</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>41893608576929.49</v>
-      </c>
-      <c r="E14">
-        <v>476159190267.2688</v>
-      </c>
-      <c r="F14">
-        <v>40954643345576.34</v>
-      </c>
-      <c r="G14">
-        <v>42832573808282.65</v>
-      </c>
-      <c r="H14">
-        <v>2.267275744759811E+23</v>
-      </c>
-      <c r="I14">
-        <v>0.01136591490782883</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>41554151268648.77</v>
-      </c>
-      <c r="E15">
-        <v>479816750781.9963</v>
-      </c>
-      <c r="F15">
-        <v>40607973486902.6</v>
-      </c>
-      <c r="G15">
-        <v>42500329050394.95</v>
-      </c>
-      <c r="H15">
-        <v>2.302241143309923E+23</v>
-      </c>
-      <c r="I15">
-        <v>0.01154678259892657</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>40990074219128.98</v>
-      </c>
-      <c r="E16">
-        <v>469685690340.9119</v>
-      </c>
-      <c r="F16">
-        <v>40063874448319.81</v>
-      </c>
-      <c r="G16">
-        <v>41916273989938.14</v>
-      </c>
-      <c r="H16">
-        <v>2.20604647711019E+23</v>
-      </c>
-      <c r="I16">
-        <v>0.0114585225640241</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>40075981792726.64</v>
-      </c>
-      <c r="E17">
-        <v>451707583904.3709</v>
-      </c>
-      <c r="F17">
-        <v>39185234066558.27</v>
-      </c>
-      <c r="G17">
-        <v>40966729518895.02</v>
-      </c>
-      <c r="H17">
-        <v>2.040397413567243E+23</v>
-      </c>
-      <c r="I17">
-        <v>0.01127127929742575</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>251859309046.375</v>
-      </c>
-      <c r="E18">
-        <v>9146930726.064089</v>
-      </c>
-      <c r="F18">
-        <v>233821959141.2955</v>
-      </c>
-      <c r="G18">
-        <v>269896658951.4545</v>
-      </c>
-      <c r="H18">
-        <v>8.366634170741532E+19</v>
-      </c>
-      <c r="I18">
-        <v>0.03631762018524342</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>249414840789.098</v>
-      </c>
-      <c r="E19">
-        <v>9191415845.177736</v>
-      </c>
-      <c r="F19">
-        <v>231289768162.2605</v>
-      </c>
-      <c r="G19">
-        <v>267539913415.9355</v>
-      </c>
-      <c r="H19">
-        <v>8.448212523898436E+19</v>
-      </c>
-      <c r="I19">
-        <v>0.03685192034322401</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>268285327327.6715</v>
-      </c>
-      <c r="E20">
-        <v>9514462021.114838</v>
-      </c>
-      <c r="F20">
-        <v>249523221680.0994</v>
-      </c>
-      <c r="G20">
-        <v>287047432975.2437</v>
-      </c>
-      <c r="H20">
-        <v>9.052498755123664E+19</v>
-      </c>
-      <c r="I20">
-        <v>0.03546396709759049</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>284472308296.508</v>
-      </c>
-      <c r="E21">
-        <v>12459811324.20002</v>
-      </c>
-      <c r="F21">
-        <v>259902101815.6097</v>
-      </c>
-      <c r="G21">
-        <v>309042514777.4063</v>
-      </c>
-      <c r="H21">
-        <v>1.552468982346629E+20</v>
-      </c>
-      <c r="I21">
-        <v>0.04379973361489036</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>23125020346309.66</v>
-      </c>
-      <c r="E22">
-        <v>261219397550.4368</v>
-      </c>
-      <c r="F22">
-        <v>22609907045824.58</v>
-      </c>
-      <c r="G22">
-        <v>23640133646794.75</v>
-      </c>
-      <c r="H22">
-        <v>6.823557365661316E+22</v>
-      </c>
-      <c r="I22">
-        <v>0.0112959640094813</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>22617016336308.74</v>
-      </c>
-      <c r="E23">
-        <v>260239838005.7271</v>
-      </c>
-      <c r="F23">
-        <v>22103834684678.33</v>
-      </c>
-      <c r="G23">
-        <v>23130197987939.15</v>
-      </c>
-      <c r="H23">
-        <v>6.772477328524706E+22</v>
-      </c>
-      <c r="I23">
-        <v>0.0115063735258459</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>21754919878135.21</v>
-      </c>
-      <c r="E24">
-        <v>245748865158.3589</v>
-      </c>
-      <c r="F24">
-        <v>21270313795243.74</v>
-      </c>
-      <c r="G24">
-        <v>22239525961026.68</v>
-      </c>
-      <c r="H24">
-        <v>6.039250472662128E+22</v>
-      </c>
-      <c r="I24">
-        <v>0.01129624317326716</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>21586622064945.38</v>
-      </c>
-      <c r="E25">
-        <v>255716318723.3998</v>
-      </c>
-      <c r="F25">
-        <v>21082360596766.81</v>
-      </c>
-      <c r="G25">
-        <v>22090883533123.96</v>
-      </c>
-      <c r="H25">
-        <v>6.539083566144738E+22</v>
-      </c>
-      <c r="I25">
-        <v>0.01184605530008601</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>128210257190729.4</v>
-      </c>
-      <c r="E26">
-        <v>952190619153.6154</v>
-      </c>
-      <c r="F26">
-        <v>126332578667914.3</v>
-      </c>
-      <c r="G26">
-        <v>130087935713544.5</v>
-      </c>
-      <c r="H26">
-        <v>9.066669752041454E+23</v>
-      </c>
-      <c r="I26">
-        <v>0.007426789712597708</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>127435578162874.6</v>
-      </c>
-      <c r="E27">
-        <v>1005443448788.263</v>
-      </c>
-      <c r="F27">
-        <v>125452887374161.5</v>
-      </c>
-      <c r="G27">
-        <v>129418268951587.7</v>
-      </c>
-      <c r="H27">
-        <v>1.010916528711236E+24</v>
-      </c>
-      <c r="I27">
-        <v>0.007889817453515312</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>125105970614062.5</v>
-      </c>
-      <c r="E28">
-        <v>926573003562.1698</v>
-      </c>
-      <c r="F28">
-        <v>123278808915961.1</v>
-      </c>
-      <c r="G28">
-        <v>126933132312164</v>
-      </c>
-      <c r="H28">
-        <v>8.585375309302208E+23</v>
-      </c>
-      <c r="I28">
-        <v>0.007406305222798203</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>129099021949184.6</v>
-      </c>
-      <c r="E29">
-        <v>938512214909.4036</v>
-      </c>
-      <c r="F29">
-        <v>127248316645133.8</v>
-      </c>
-      <c r="G29">
-        <v>130949727253235.4</v>
-      </c>
-      <c r="H29">
-        <v>8.808051775341545E+23</v>
-      </c>
-      <c r="I29">
-        <v>0.007269708172373426</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>8273369554872.042</v>
-      </c>
-      <c r="E30">
-        <v>128969727674.6964</v>
-      </c>
-      <c r="F30">
-        <v>8019046856373.559</v>
-      </c>
-      <c r="G30">
-        <v>8527692253370.525</v>
-      </c>
-      <c r="H30">
-        <v>1.663319065648534E+22</v>
-      </c>
-      <c r="I30">
-        <v>0.01558853703068883</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>8284486699824.458</v>
-      </c>
-      <c r="E31">
-        <v>120558568034.0712</v>
-      </c>
-      <c r="F31">
-        <v>8046750442624.051</v>
-      </c>
-      <c r="G31">
-        <v>8522222957024.865</v>
-      </c>
-      <c r="H31">
-        <v>1.453436832642578E+22</v>
-      </c>
-      <c r="I31">
-        <v>0.0145523280321792</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>8276662962182.306</v>
-      </c>
-      <c r="E32">
-        <v>125243752741.0178</v>
-      </c>
-      <c r="F32">
-        <v>8029687724338.008</v>
-      </c>
-      <c r="G32">
-        <v>8523638200026.604</v>
-      </c>
-      <c r="H32">
-        <v>1.56859976006532E+22</v>
-      </c>
-      <c r="I32">
-        <v>0.01513215571460153</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>8486248545919.154</v>
-      </c>
-      <c r="E33">
-        <v>137020534738.5385</v>
-      </c>
-      <c r="F33">
-        <v>8216050005744.619</v>
-      </c>
-      <c r="G33">
-        <v>8756447086093.689</v>
-      </c>
-      <c r="H33">
-        <v>1.877462694003503E+22</v>
-      </c>
-      <c r="I33">
-        <v>0.01614618450038546</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>457653564504.1807</v>
-      </c>
-      <c r="E34">
-        <v>15903341396.70214</v>
-      </c>
-      <c r="F34">
-        <v>426292866361.4841</v>
-      </c>
-      <c r="G34">
-        <v>489014262646.8773</v>
-      </c>
-      <c r="H34">
-        <v>2.529162675800601E+20</v>
-      </c>
-      <c r="I34">
-        <v>0.03474973785887964</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>457645123142.7654</v>
-      </c>
-      <c r="E35">
-        <v>17241024968.32748</v>
-      </c>
-      <c r="F35">
-        <v>423646571126.8641</v>
-      </c>
-      <c r="G35">
-        <v>491643675158.6666</v>
-      </c>
-      <c r="H35">
-        <v>2.972529419584917E+20</v>
-      </c>
-      <c r="I35">
-        <v>0.03767335014941049</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>468299809347.6648</v>
-      </c>
-      <c r="E36">
-        <v>15708312442.40132</v>
-      </c>
-      <c r="F36">
-        <v>437323699827.7203</v>
-      </c>
-      <c r="G36">
-        <v>499275918867.6093</v>
-      </c>
-      <c r="H36">
-        <v>2.467510797881002E+20</v>
-      </c>
-      <c r="I36">
-        <v>0.0335432817371478</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>476942150658.7589</v>
-      </c>
-      <c r="E37">
-        <v>14334350517.57213</v>
-      </c>
-      <c r="F37">
-        <v>448675434348.0341</v>
-      </c>
-      <c r="G37">
-        <v>505208866969.4838</v>
-      </c>
-      <c r="H37">
-        <v>2.054736047606203E+20</v>
-      </c>
-      <c r="I37">
-        <v>0.03005469425961478</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>461434295149.0904</v>
-      </c>
-      <c r="E38">
-        <v>18385624408.02761</v>
-      </c>
-      <c r="F38">
-        <v>425178642777.5256</v>
-      </c>
-      <c r="G38">
-        <v>497689947520.6552</v>
-      </c>
-      <c r="H38">
-        <v>3.380311848730606E+20</v>
-      </c>
-      <c r="I38">
-        <v>0.03984451221183544</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>436330343479.837</v>
-      </c>
-      <c r="E39">
-        <v>18010190675.87788</v>
-      </c>
-      <c r="F39">
-        <v>400815030113.3177</v>
-      </c>
-      <c r="G39">
-        <v>471845656846.3563</v>
-      </c>
-      <c r="H39">
-        <v>3.243669681814784E+20</v>
-      </c>
-      <c r="I39">
-        <v>0.04127650287221002</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>441762085249.6716</v>
-      </c>
-      <c r="E40">
-        <v>17434707794.65916</v>
-      </c>
-      <c r="F40">
-        <v>407381599116.8764</v>
-      </c>
-      <c r="G40">
-        <v>476142571382.4667</v>
-      </c>
-      <c r="H40">
-        <v>3.039690358851488E+20</v>
-      </c>
-      <c r="I40">
-        <v>0.03946628372329768</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>458106827208.3965</v>
-      </c>
-      <c r="E41">
-        <v>21031640129.22765</v>
-      </c>
-      <c r="F41">
-        <v>416633346819.2183</v>
-      </c>
-      <c r="G41">
-        <v>499580307597.5747</v>
-      </c>
-      <c r="H41">
-        <v>4.423298865253388E+20</v>
-      </c>
-      <c r="I41">
-        <v>0.04590990328039837</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>104766005074.5187</v>
-      </c>
-      <c r="E42">
-        <v>5353620359.616146</v>
-      </c>
-      <c r="F42">
-        <v>94208898370.93427</v>
-      </c>
-      <c r="G42">
-        <v>115323111778.1032</v>
-      </c>
-      <c r="H42">
-        <v>2.866125095489652E+19</v>
-      </c>
-      <c r="I42">
-        <v>0.05110073974671635</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>96502915876.22072</v>
-      </c>
-      <c r="E43">
-        <v>5415769154.715055</v>
-      </c>
-      <c r="F43">
-        <v>85823254449.42358</v>
-      </c>
-      <c r="G43">
-        <v>107182577303.0179</v>
-      </c>
-      <c r="H43">
-        <v>2.933055553716303E+19</v>
-      </c>
-      <c r="I43">
-        <v>0.05612026440384021</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>97851006918.76057</v>
-      </c>
-      <c r="E44">
-        <v>4689004675.211505</v>
-      </c>
-      <c r="F44">
-        <v>88604493463.45018</v>
-      </c>
-      <c r="G44">
-        <v>107097520374.071</v>
-      </c>
-      <c r="H44">
-        <v>2.198676484415535E+19</v>
-      </c>
-      <c r="I44">
-        <v>0.04791984081578726</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>106194956789.1065</v>
-      </c>
-      <c r="E45">
-        <v>5277898164.300206</v>
-      </c>
-      <c r="F45">
-        <v>95787170964.12039</v>
-      </c>
-      <c r="G45">
-        <v>116602742614.0926</v>
-      </c>
-      <c r="H45">
-        <v>2.785620903272348E+19</v>
-      </c>
-      <c r="I45">
-        <v>0.04970008297834361</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>259371620530228.7</v>
-      </c>
-      <c r="E46">
-        <v>1485344446244.143</v>
-      </c>
-      <c r="F46">
-        <v>256442585828989.6</v>
-      </c>
-      <c r="G46">
-        <v>262300655231467.8</v>
-      </c>
-      <c r="H46">
-        <v>2.206248123988321E+24</v>
-      </c>
-      <c r="I46">
-        <v>0.00572670380517221</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>261356672899335.5</v>
-      </c>
-      <c r="E47">
-        <v>1499376755647.876</v>
-      </c>
-      <c r="F47">
-        <v>258399967093736.7</v>
-      </c>
-      <c r="G47">
-        <v>264313378704934.3</v>
-      </c>
-      <c r="H47">
-        <v>2.24813065537715E+24</v>
-      </c>
-      <c r="I47">
-        <v>0.005736898694855127</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>261470386982058.5</v>
-      </c>
-      <c r="E48">
-        <v>1492744679563.938</v>
-      </c>
-      <c r="F48">
-        <v>258526759342295.4</v>
-      </c>
-      <c r="G48">
-        <v>264414014621821.6</v>
-      </c>
-      <c r="H48">
-        <v>2.228286678366444E+24</v>
-      </c>
-      <c r="I48">
-        <v>0.005709039164218496</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>11</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>261844245125185.1</v>
-      </c>
-      <c r="E49">
-        <v>1554957155457.487</v>
-      </c>
-      <c r="F49">
-        <v>258777937186449.6</v>
-      </c>
-      <c r="G49">
-        <v>264910553063920.6</v>
-      </c>
-      <c r="H49">
-        <v>2.417891755308438E+24</v>
-      </c>
-      <c r="I49">
-        <v>0.005938481308665299</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>46476265430751.81</v>
-      </c>
-      <c r="E50">
-        <v>496229958972.0182</v>
-      </c>
-      <c r="F50">
-        <v>45497721515703.16</v>
-      </c>
-      <c r="G50">
-        <v>47454809345800.46</v>
-      </c>
-      <c r="H50">
-        <v>2.462441721813709E+23</v>
-      </c>
-      <c r="I50">
-        <v>0.01067706181580758</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>47855210082644</v>
-      </c>
-      <c r="E51">
-        <v>516830230760.001</v>
-      </c>
-      <c r="F51">
-        <v>46836043326829.67</v>
-      </c>
-      <c r="G51">
-        <v>48874376838458.33</v>
-      </c>
-      <c r="H51">
-        <v>2.671134874274359E+23</v>
-      </c>
-      <c r="I51">
-        <v>0.01079987382497029</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>48332830774728.7</v>
-      </c>
-      <c r="E52">
-        <v>497200684294.0275</v>
-      </c>
-      <c r="F52">
-        <v>47352372631528.65</v>
-      </c>
-      <c r="G52">
-        <v>49313288917928.76</v>
-      </c>
-      <c r="H52">
-        <v>2.472085204624492E+23</v>
-      </c>
-      <c r="I52">
-        <v>0.01028701767151602</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>47477889562385.68</v>
-      </c>
-      <c r="E53">
-        <v>465740048277.7642</v>
-      </c>
-      <c r="F53">
-        <v>46559470426264.22</v>
-      </c>
-      <c r="G53">
-        <v>48396308698507.14</v>
-      </c>
-      <c r="H53">
-        <v>2.169137925697741E+23</v>
-      </c>
-      <c r="I53">
-        <v>0.009809619858224414</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>4077861463455545</v>
-      </c>
-      <c r="E54">
-        <v>6142804754771.292</v>
-      </c>
-      <c r="F54">
-        <v>4065748119419313</v>
-      </c>
-      <c r="G54">
-        <v>4089974807491777</v>
-      </c>
-      <c r="H54">
-        <v>3.773405025524079E+25</v>
-      </c>
-      <c r="I54">
-        <v>0.001506378970894693</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>4093010695635173</v>
-      </c>
-      <c r="E55">
-        <v>6727479205018.805</v>
-      </c>
-      <c r="F55">
-        <v>4079744398990518</v>
-      </c>
-      <c r="G55">
-        <v>4106276992279827</v>
-      </c>
-      <c r="H55">
-        <v>4.525897645396045E+25</v>
-      </c>
-      <c r="I55">
-        <v>0.001643650531427405</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>4137375065940176</v>
-      </c>
-      <c r="E56">
-        <v>6447573197315.846</v>
-      </c>
-      <c r="F56">
-        <v>4124660731779187</v>
-      </c>
-      <c r="G56">
-        <v>4150089400101165</v>
-      </c>
-      <c r="H56">
-        <v>4.157120013474568E+25</v>
-      </c>
-      <c r="I56">
-        <v>0.001558372904210149</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>4138649809119328</v>
-      </c>
-      <c r="E57">
-        <v>6471260323715.413</v>
-      </c>
-      <c r="F57">
-        <v>4125888764974420</v>
-      </c>
-      <c r="G57">
-        <v>4151410853264235</v>
-      </c>
-      <c r="H57">
-        <v>4.187721017729331E+25</v>
-      </c>
-      <c r="I57">
-        <v>0.001563616305360334</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_PR</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>somaE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>73144446.44179197</v>
-      </c>
-      <c r="E2">
-        <v>17627088.78167988</v>
-      </c>
-      <c r="F2">
-        <v>38384593.36265169</v>
-      </c>
-      <c r="G2">
-        <v>107904299.5209322</v>
-      </c>
-      <c r="H2">
-        <v>310714258917224.6</v>
-      </c>
-      <c r="I2">
-        <v>0.2409901180359255</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>43761467.83510761</v>
-      </c>
-      <c r="E3">
-        <v>13914203.05617908</v>
-      </c>
-      <c r="F3">
-        <v>16323264.06042754</v>
-      </c>
-      <c r="G3">
-        <v>71199671.60978767</v>
-      </c>
-      <c r="H3">
-        <v>193605046688583.3</v>
-      </c>
-      <c r="I3">
-        <v>0.3179555838622128</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>62381731.50081915</v>
-      </c>
-      <c r="E4">
-        <v>15561559.92513822</v>
-      </c>
-      <c r="F4">
-        <v>31695011.56767702</v>
-      </c>
-      <c r="G4">
-        <v>93068451.43396127</v>
-      </c>
-      <c r="H4">
-        <v>242162147303668</v>
-      </c>
-      <c r="I4">
-        <v>0.2494570052922286</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>47427512.08163598</v>
-      </c>
-      <c r="E5">
-        <v>11334379.55770118</v>
-      </c>
-      <c r="F5">
-        <v>25076608.13779386</v>
-      </c>
-      <c r="G5">
-        <v>69778416.02547809</v>
-      </c>
-      <c r="H5">
-        <v>128468159958034.4</v>
-      </c>
-      <c r="I5">
-        <v>0.238983220081027</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>59930949460763.66</v>
-      </c>
-      <c r="E6">
-        <v>723917937339.9333</v>
-      </c>
-      <c r="F6">
-        <v>58503414746724.95</v>
-      </c>
-      <c r="G6">
-        <v>61358484174802.37</v>
-      </c>
-      <c r="H6">
-        <v>5.240571800025037E+23</v>
-      </c>
-      <c r="I6">
-        <v>0.01207920021046683</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>59344996895833.77</v>
-      </c>
-      <c r="E7">
-        <v>764352410003.7728</v>
-      </c>
-      <c r="F7">
-        <v>57837727158812.23</v>
-      </c>
-      <c r="G7">
-        <v>60852266632855.3</v>
-      </c>
-      <c r="H7">
-        <v>5.842346066785756E+23</v>
-      </c>
-      <c r="I7">
-        <v>0.01287981211533997</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>56961011026778.27</v>
-      </c>
-      <c r="E8">
-        <v>698003511899.6472</v>
-      </c>
-      <c r="F8">
-        <v>55584578433577.05</v>
-      </c>
-      <c r="G8">
-        <v>58337443619979.48</v>
-      </c>
-      <c r="H8">
-        <v>4.87208902624241E+23</v>
-      </c>
-      <c r="I8">
-        <v>0.01225405763200911</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>56358414500248.88</v>
-      </c>
-      <c r="E9">
-        <v>778287916090.6719</v>
-      </c>
-      <c r="F9">
-        <v>54823664550801.81</v>
-      </c>
-      <c r="G9">
-        <v>57893164449695.94</v>
-      </c>
-      <c r="H9">
-        <v>6.057320803327606E+23</v>
-      </c>
-      <c r="I9">
-        <v>0.0138096134000937</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>80822982759.25043</v>
-      </c>
-      <c r="E10">
-        <v>4303945675.280235</v>
-      </c>
-      <c r="F10">
-        <v>72335788918.77754</v>
-      </c>
-      <c r="G10">
-        <v>89310176599.72331</v>
-      </c>
-      <c r="H10">
-        <v>1.852394837576344E+19</v>
-      </c>
-      <c r="I10">
-        <v>0.05325150753345138</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>79306397608.30055</v>
-      </c>
-      <c r="E11">
-        <v>3846253788.951605</v>
-      </c>
-      <c r="F11">
-        <v>71721752278.32434</v>
-      </c>
-      <c r="G11">
-        <v>86891042938.27676</v>
-      </c>
-      <c r="H11">
-        <v>1.479366820902458E+19</v>
-      </c>
-      <c r="I11">
-        <v>0.04849865716948212</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>80382507957.51991</v>
-      </c>
-      <c r="E12">
-        <v>4168763868.772764</v>
-      </c>
-      <c r="F12">
-        <v>72161886765.05321</v>
-      </c>
-      <c r="G12">
-        <v>88603129149.98662</v>
-      </c>
-      <c r="H12">
-        <v>1.737859219358526E+19</v>
-      </c>
-      <c r="I12">
-        <v>0.05186158002156201</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>82193421788.2506</v>
-      </c>
-      <c r="E13">
-        <v>4489825433.911932</v>
-      </c>
-      <c r="F13">
-        <v>73339681141.3</v>
-      </c>
-      <c r="G13">
-        <v>91047162435.20119</v>
-      </c>
-      <c r="H13">
-        <v>2.015853242700247E+19</v>
-      </c>
-      <c r="I13">
-        <v>0.05462511885049352</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>40353854579071.77</v>
-      </c>
-      <c r="E14">
-        <v>458658477348.6287</v>
-      </c>
-      <c r="F14">
-        <v>39449399993087.59</v>
-      </c>
-      <c r="G14">
-        <v>41258309165055.94</v>
-      </c>
-      <c r="H14">
-        <v>2.103675988437625E+23</v>
-      </c>
-      <c r="I14">
-        <v>0.01136591490782883</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>40026873654785.7</v>
-      </c>
-      <c r="E15">
-        <v>462181608206.5119</v>
-      </c>
-      <c r="F15">
-        <v>39115471607850.06</v>
-      </c>
-      <c r="G15">
-        <v>40938275701721.33</v>
-      </c>
-      <c r="H15">
-        <v>2.136118389643577E+23</v>
-      </c>
-      <c r="I15">
-        <v>0.01154678259892657</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>39483528643435.95</v>
-      </c>
-      <c r="E16">
-        <v>452422903868.1027</v>
-      </c>
-      <c r="F16">
-        <v>38591370337383.86</v>
-      </c>
-      <c r="G16">
-        <v>40375686949488.03</v>
-      </c>
-      <c r="H16">
-        <v>2.046864839444465E+23</v>
-      </c>
-      <c r="I16">
-        <v>0.0114585225640241</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>38603032689521.29</v>
-      </c>
-      <c r="E17">
-        <v>435105563171.2503</v>
-      </c>
-      <c r="F17">
-        <v>37745023426785.4</v>
-      </c>
-      <c r="G17">
-        <v>39461041952257.18</v>
-      </c>
-      <c r="H17">
-        <v>1.893168511025709E+23</v>
-      </c>
-      <c r="I17">
-        <v>0.01127127929742574</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>243945380508.0463</v>
-      </c>
-      <c r="E18">
-        <v>8859515675.235907</v>
-      </c>
-      <c r="F18">
-        <v>226474800593.3639</v>
-      </c>
-      <c r="G18">
-        <v>261415960422.7287</v>
-      </c>
-      <c r="H18">
-        <v>7.849101799975074E+19</v>
-      </c>
-      <c r="I18">
-        <v>0.03631762018524341</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>241577722384.0756</v>
-      </c>
-      <c r="E19">
-        <v>8902602981.99544</v>
-      </c>
-      <c r="F19">
-        <v>224022176172.8545</v>
-      </c>
-      <c r="G19">
-        <v>259133268595.2967</v>
-      </c>
-      <c r="H19">
-        <v>7.925633985503409E+19</v>
-      </c>
-      <c r="I19">
-        <v>0.03685192034322401</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>259855260095.3249</v>
-      </c>
-      <c r="E20">
-        <v>9215498394.15642</v>
-      </c>
-      <c r="F20">
-        <v>241682697728.4266</v>
-      </c>
-      <c r="G20">
-        <v>278027822462.2231</v>
-      </c>
-      <c r="H20">
-        <v>8.492541065269956E+19</v>
-      </c>
-      <c r="I20">
-        <v>0.03546396709759049</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>275533613405.6336</v>
-      </c>
-      <c r="E21">
-        <v>12068298869.11494</v>
-      </c>
-      <c r="F21">
-        <v>251735452472.6964</v>
-      </c>
-      <c r="G21">
-        <v>299331774338.5708</v>
-      </c>
-      <c r="H21">
-        <v>1.456438375942809E+20</v>
-      </c>
-      <c r="I21">
-        <v>0.04379973361489038</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>22179305800843.46</v>
-      </c>
-      <c r="E22">
-        <v>250536640081.6077</v>
-      </c>
-      <c r="F22">
-        <v>21685258433859.69</v>
-      </c>
-      <c r="G22">
-        <v>22673353167827.23</v>
-      </c>
-      <c r="H22">
-        <v>6.276860802338102E+22</v>
-      </c>
-      <c r="I22">
-        <v>0.0112959640094813</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>21692076984732.89</v>
-      </c>
-      <c r="E23">
-        <v>249597140337.7416</v>
-      </c>
-      <c r="F23">
-        <v>21199882270417.36</v>
-      </c>
-      <c r="G23">
-        <v>22184271699048.43</v>
-      </c>
-      <c r="H23">
-        <v>6.22987324647783E+22</v>
-      </c>
-      <c r="I23">
-        <v>0.01150637352584589</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>20865236588948.93</v>
-      </c>
-      <c r="E24">
-        <v>235698786376.5187</v>
-      </c>
-      <c r="F24">
-        <v>20400448824681.56</v>
-      </c>
-      <c r="G24">
-        <v>21330024353216.3</v>
-      </c>
-      <c r="H24">
-        <v>5.555391789936381E+22</v>
-      </c>
-      <c r="I24">
-        <v>0.01129624317326717</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>20703821437374.98</v>
-      </c>
-      <c r="E25">
-        <v>245258613670.2502</v>
-      </c>
-      <c r="F25">
-        <v>20220182109113.82</v>
-      </c>
-      <c r="G25">
-        <v>21187460765636.14</v>
-      </c>
-      <c r="H25">
-        <v>6.015178757945304E+22</v>
-      </c>
-      <c r="I25">
-        <v>0.01184605530008601</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>125224131677269.1</v>
-      </c>
-      <c r="E26">
-        <v>930013292909.7225</v>
-      </c>
-      <c r="F26">
-        <v>123390185878074.6</v>
-      </c>
-      <c r="G26">
-        <v>127058077476463.5</v>
-      </c>
-      <c r="H26">
-        <v>8.649247249887853E+23</v>
-      </c>
-      <c r="I26">
-        <v>0.007426789712597706</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>124467495580303.8</v>
-      </c>
-      <c r="E27">
-        <v>982025819024.8212</v>
-      </c>
-      <c r="F27">
-        <v>122530983339853.6</v>
-      </c>
-      <c r="G27">
-        <v>126404007820754</v>
-      </c>
-      <c r="H27">
-        <v>9.643747092313708E+23</v>
-      </c>
-      <c r="I27">
-        <v>0.007889817453515312</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>122192146565015.4</v>
-      </c>
-      <c r="E28">
-        <v>904992333289.3971</v>
-      </c>
-      <c r="F28">
-        <v>120407541010887.7</v>
-      </c>
-      <c r="G28">
-        <v>123976752119143.1</v>
-      </c>
-      <c r="H28">
-        <v>8.190111233125872E+23</v>
-      </c>
-      <c r="I28">
-        <v>0.007406305222798205</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>126092196351512.3</v>
-      </c>
-      <c r="E29">
-        <v>916653470289.1038</v>
-      </c>
-      <c r="F29">
-        <v>124284595541964.6</v>
-      </c>
-      <c r="G29">
-        <v>127899797161060</v>
-      </c>
-      <c r="H29">
-        <v>8.402535845930569E+23</v>
-      </c>
-      <c r="I29">
-        <v>0.007269708172373427</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>7978362684098.589</v>
-      </c>
-      <c r="E30">
-        <v>124371002145.3368</v>
-      </c>
-      <c r="F30">
-        <v>7733108472502.943</v>
-      </c>
-      <c r="G30">
-        <v>8223616895694.234</v>
-      </c>
-      <c r="H30">
-        <v>1.546814617463536E+22</v>
-      </c>
-      <c r="I30">
-        <v>0.01558853703068883</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>7989083420535.394</v>
-      </c>
-      <c r="E31">
-        <v>116259762612.0753</v>
-      </c>
-      <c r="F31">
-        <v>7759824220819.356</v>
-      </c>
-      <c r="G31">
-        <v>8218342620251.431</v>
-      </c>
-      <c r="H31">
-        <v>1.351633240261609E+22</v>
-      </c>
-      <c r="I31">
-        <v>0.01455232803217919</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>7981538657057.789</v>
-      </c>
-      <c r="E32">
-        <v>120777885800.7101</v>
-      </c>
-      <c r="F32">
-        <v>7743369914752.188</v>
-      </c>
-      <c r="G32">
-        <v>8219707399363.39</v>
-      </c>
-      <c r="H32">
-        <v>1.458729769848936E+22</v>
-      </c>
-      <c r="I32">
-        <v>0.01513215571460153</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>8183650963213.192</v>
-      </c>
-      <c r="E33">
-        <v>132134738338.7973</v>
-      </c>
-      <c r="F33">
-        <v>7923087001223.008</v>
-      </c>
-      <c r="G33">
-        <v>8444214925203.377</v>
-      </c>
-      <c r="H33">
-        <v>1.745958907586244E+22</v>
-      </c>
-      <c r="I33">
-        <v>0.01614618450038545</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>447637940680.2807</v>
-      </c>
-      <c r="E34">
-        <v>15555301094.32847</v>
-      </c>
-      <c r="F34">
-        <v>416963562889.5132</v>
-      </c>
-      <c r="G34">
-        <v>478312318471.0482</v>
-      </c>
-      <c r="H34">
-        <v>2.419673921352165E+20</v>
-      </c>
-      <c r="I34">
-        <v>0.03474973785887964</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>447629684055.7648</v>
-      </c>
-      <c r="E35">
-        <v>16863709824.70281</v>
-      </c>
-      <c r="F35">
-        <v>414375181106.5795</v>
-      </c>
-      <c r="G35">
-        <v>480884187004.9501</v>
-      </c>
-      <c r="H35">
-        <v>2.843847090517781E+20</v>
-      </c>
-      <c r="I35">
-        <v>0.03767335014941048</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>458051195350.0621</v>
-      </c>
-      <c r="E36">
-        <v>15364540295.66446</v>
-      </c>
-      <c r="F36">
-        <v>427752989564.6069</v>
-      </c>
-      <c r="G36">
-        <v>488349401135.5174</v>
-      </c>
-      <c r="H36">
-        <v>2.36069098497097E+20</v>
-      </c>
-      <c r="I36">
-        <v>0.03354328173714781</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>466504401371.4017</v>
-      </c>
-      <c r="E37">
-        <v>14020647153.98209</v>
-      </c>
-      <c r="F37">
-        <v>438856294461.462</v>
-      </c>
-      <c r="G37">
-        <v>494152508281.3414</v>
-      </c>
-      <c r="H37">
-        <v>1.965785466164662E+20</v>
-      </c>
-      <c r="I37">
-        <v>0.03005469425961477</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>445705821658.7839</v>
-      </c>
-      <c r="E38">
-        <v>17758931053.96956</v>
-      </c>
-      <c r="F38">
-        <v>410685981347.9929</v>
-      </c>
-      <c r="G38">
-        <v>480725661969.5748</v>
-      </c>
-      <c r="H38">
-        <v>3.153796321796445E+20</v>
-      </c>
-      <c r="I38">
-        <v>0.03984451221183544</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>421457564597.5877</v>
-      </c>
-      <c r="E39">
-        <v>17396294375.62697</v>
-      </c>
-      <c r="F39">
-        <v>387152828057.8401</v>
-      </c>
-      <c r="G39">
-        <v>455762301137.3353</v>
-      </c>
-      <c r="H39">
-        <v>3.026310580034705E+20</v>
-      </c>
-      <c r="I39">
-        <v>0.04127650287221002</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>426704159733.6953</v>
-      </c>
-      <c r="E40">
-        <v>16840427433.96135</v>
-      </c>
-      <c r="F40">
-        <v>393495568647.2985</v>
-      </c>
-      <c r="G40">
-        <v>459912750820.0922</v>
-      </c>
-      <c r="H40">
-        <v>2.835999961585181E+20</v>
-      </c>
-      <c r="I40">
-        <v>0.03946628372329768</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>442491773964.1472</v>
-      </c>
-      <c r="E41">
-        <v>20314754545.06589</v>
-      </c>
-      <c r="F41">
-        <v>402431960794.1365</v>
-      </c>
-      <c r="G41">
-        <v>482551587134.1578</v>
-      </c>
-      <c r="H41">
-        <v>4.126892522262753E+20</v>
-      </c>
-      <c r="I41">
-        <v>0.04590990328039837</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>102020809763.6064</v>
-      </c>
-      <c r="E42">
-        <v>5213338848.47931</v>
-      </c>
-      <c r="F42">
-        <v>91740332103.94577</v>
-      </c>
-      <c r="G42">
-        <v>112301287423.2671</v>
-      </c>
-      <c r="H42">
-        <v>2.717890194906358E+19</v>
-      </c>
-      <c r="I42">
-        <v>0.05110073974671633</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>93974239212.79033</v>
-      </c>
-      <c r="E43">
-        <v>5273859151.771522</v>
-      </c>
-      <c r="F43">
-        <v>83574418144.99248</v>
-      </c>
-      <c r="G43">
-        <v>104374060280.5882</v>
-      </c>
-      <c r="H43">
-        <v>2.781359035272423E+19</v>
-      </c>
-      <c r="I43">
-        <v>0.05612026440384021</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>95287006075.44922</v>
-      </c>
-      <c r="E44">
-        <v>4566138162.948481</v>
-      </c>
-      <c r="F44">
-        <v>86282780043.06529</v>
-      </c>
-      <c r="G44">
-        <v>104291232107.8331</v>
-      </c>
-      <c r="H44">
-        <v>2.084961772313453E+19</v>
-      </c>
-      <c r="I44">
-        <v>0.04791984081578726</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>103412318497.1087</v>
-      </c>
-      <c r="E45">
-        <v>5139600810.289201</v>
-      </c>
-      <c r="F45">
-        <v>93277249044.41733</v>
-      </c>
-      <c r="G45">
-        <v>113547387949.8001</v>
-      </c>
-      <c r="H45">
-        <v>2.641549648912541E+19</v>
-      </c>
-      <c r="I45">
-        <v>0.04970008297834361</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>252174793163315</v>
-      </c>
-      <c r="E46">
-        <v>1444130347576.871</v>
-      </c>
-      <c r="F46">
-        <v>249327030873658.2</v>
-      </c>
-      <c r="G46">
-        <v>255022555452971.8</v>
-      </c>
-      <c r="H46">
-        <v>2.085512460792495E+24</v>
-      </c>
-      <c r="I46">
-        <v>0.005726703805172212</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>254104765955151.3</v>
-      </c>
-      <c r="E47">
-        <v>1457773300164.576</v>
-      </c>
-      <c r="F47">
-        <v>251230100355856.3</v>
-      </c>
-      <c r="G47">
-        <v>256979431554446.3</v>
-      </c>
-      <c r="H47">
-        <v>2.125102994672718E+24</v>
-      </c>
-      <c r="I47">
-        <v>0.00573689869485513</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>254215324794363.6</v>
-      </c>
-      <c r="E48">
-        <v>1451325245395.546</v>
-      </c>
-      <c r="F48">
-        <v>251353374478868.1</v>
-      </c>
-      <c r="G48">
-        <v>257077275109859.2</v>
-      </c>
-      <c r="H48">
-        <v>2.106344967922442E+24</v>
-      </c>
-      <c r="I48">
-        <v>0.005709039164218491</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>11</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>254578809433595.3</v>
-      </c>
-      <c r="E49">
-        <v>1511811501403.668</v>
-      </c>
-      <c r="F49">
-        <v>251597582849727.3</v>
-      </c>
-      <c r="G49">
-        <v>257560036017463.3</v>
-      </c>
-      <c r="H49">
-        <v>2.285574015776414E+24</v>
-      </c>
-      <c r="I49">
-        <v>0.00593848130866529</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>44129490820649.26</v>
-      </c>
-      <c r="E50">
-        <v>471173301392.1854</v>
-      </c>
-      <c r="F50">
-        <v>43200357545492.23</v>
-      </c>
-      <c r="G50">
-        <v>45058624095806.28</v>
-      </c>
-      <c r="H50">
-        <v>2.220042799448112E+23</v>
-      </c>
-      <c r="I50">
-        <v>0.01067706181580758</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>45438806980066.75</v>
-      </c>
-      <c r="E51">
-        <v>490733382141.8997</v>
-      </c>
-      <c r="F51">
-        <v>44471102075669.23</v>
-      </c>
-      <c r="G51">
-        <v>46406511884464.27</v>
-      </c>
-      <c r="H51">
-        <v>2.408192523484278E+23</v>
-      </c>
-      <c r="I51">
-        <v>0.01079987382497028</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>45892310671720.03</v>
-      </c>
-      <c r="E52">
-        <v>472095010866.6873</v>
-      </c>
-      <c r="F52">
-        <v>44961359825532.87</v>
-      </c>
-      <c r="G52">
-        <v>46823261517907.2</v>
-      </c>
-      <c r="H52">
-        <v>2.228736992852176E+23</v>
-      </c>
-      <c r="I52">
-        <v>0.01028701767151602</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>45080538898910.53</v>
-      </c>
-      <c r="E53">
-        <v>442222949602.2111</v>
-      </c>
-      <c r="F53">
-        <v>44208494459424.14</v>
-      </c>
-      <c r="G53">
-        <v>45952583338396.92</v>
-      </c>
-      <c r="H53">
-        <v>1.955611371548797E+23</v>
-      </c>
-      <c r="I53">
-        <v>0.009809619858224417</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>3948107016934864</v>
-      </c>
-      <c r="E54">
-        <v>5947345385152.453</v>
-      </c>
-      <c r="F54">
-        <v>3936379110281687</v>
-      </c>
-      <c r="G54">
-        <v>3959834923588041</v>
-      </c>
-      <c r="H54">
-        <v>3.537091713029418E+25</v>
-      </c>
-      <c r="I54">
-        <v>0.001506378970894692</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>3962774212082509</v>
-      </c>
-      <c r="E55">
-        <v>6513415939616.236</v>
-      </c>
-      <c r="F55">
-        <v>3949930038894949</v>
-      </c>
-      <c r="G55">
-        <v>3975618385270069</v>
-      </c>
-      <c r="H55">
-        <v>4.242458720244686E+25</v>
-      </c>
-      <c r="I55">
-        <v>0.001643650531427406</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>4005726941907386</v>
-      </c>
-      <c r="E56">
-        <v>6242416327933.062</v>
-      </c>
-      <c r="F56">
-        <v>3993417168177574</v>
-      </c>
-      <c r="G56">
-        <v>4018036715637197</v>
-      </c>
-      <c r="H56">
-        <v>3.896776161124529E+25</v>
-      </c>
-      <c r="I56">
-        <v>0.001558372904210152</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>4006961123729280</v>
-      </c>
-      <c r="E57">
-        <v>6265349748008.06</v>
-      </c>
-      <c r="F57">
-        <v>3994606126291669</v>
-      </c>
-      <c r="G57">
-        <v>4019316121166890</v>
-      </c>
-      <c r="H57">
-        <v>3.925460746486466E+25</v>
-      </c>
-      <c r="I57">
-        <v>0.001563616305360332</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I50"/>
   <sheetViews>
@@ -6252,32 +2238,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>freq</t>
+          <t>Qtd_horasHabituais</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>freq_se</t>
+          <t>Qtd_horasHabituais_se</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>freq_low</t>
+          <t>Qtd_horasHabituais_low</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>freq_upp</t>
+          <t>Qtd_horasHabituais_upp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>freq_var</t>
+          <t>Qtd_horasHabituais_var</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>freq_cv</t>
+          <t>Qtd_horasHabituais_cv</t>
         </is>
       </c>
     </row>
@@ -6296,22 +2282,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>3458.4390643</v>
+        <v>69168.781286</v>
       </c>
       <c r="E2">
-        <v>3446.153844309275</v>
+        <v>68923.0768861855</v>
       </c>
       <c r="F2">
-        <v>-3337.226561484008</v>
+        <v>-66744.53122968016</v>
       </c>
       <c r="G2">
-        <v>10254.10469008401</v>
+        <v>205082.0938016801</v>
       </c>
       <c r="H2">
-        <v>11875976.3186476</v>
+        <v>4750390527.459039</v>
       </c>
       <c r="I2">
-        <v>0.9964477558336822</v>
+        <v>0.9964477558336824</v>
       </c>
     </row>
     <row r="3">
@@ -6329,22 +2315,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>311039.28763749</v>
+        <v>5017599.56210712</v>
       </c>
       <c r="E3">
-        <v>15264.92361699928</v>
+        <v>261334.6550974789</v>
       </c>
       <c r="F3">
-        <v>280937.5216134452</v>
+        <v>4502258.978747872</v>
       </c>
       <c r="G3">
-        <v>341141.0536615349</v>
+        <v>5532940.145466368</v>
       </c>
       <c r="H3">
-        <v>233017893.0328223</v>
+        <v>68295801954.91827</v>
       </c>
       <c r="I3">
-        <v>0.04907715592118458</v>
+        <v>0.05208360130431225</v>
       </c>
     </row>
     <row r="4">
@@ -6362,22 +2348,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>324589.35246131</v>
+        <v>5295630.22433248</v>
       </c>
       <c r="E4">
-        <v>14781.47000521157</v>
+        <v>260714.2501612506</v>
       </c>
       <c r="F4">
-        <v>295440.9359508721</v>
+        <v>4781513.052547313</v>
       </c>
       <c r="G4">
-        <v>353737.7689717479</v>
+        <v>5809747.396117646</v>
       </c>
       <c r="H4">
-        <v>218491855.5149693</v>
+        <v>67971920237.14318</v>
       </c>
       <c r="I4">
-        <v>0.04553898608542149</v>
+        <v>0.04923195901468252</v>
       </c>
     </row>
     <row r="5">
@@ -6395,22 +2381,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>301346.15388792</v>
+        <v>4951708.30679098</v>
       </c>
       <c r="E5">
-        <v>15781.62937145135</v>
+        <v>292708.2872755204</v>
       </c>
       <c r="F5">
-        <v>270225.4665699309</v>
+        <v>4374500.284141296</v>
       </c>
       <c r="G5">
-        <v>332466.8412059091</v>
+        <v>5528916.329440664</v>
       </c>
       <c r="H5">
-        <v>249059825.6178559</v>
+        <v>85678141439.76857</v>
       </c>
       <c r="I5">
-        <v>0.05237043568613464</v>
+        <v>0.05911258683676662</v>
       </c>
     </row>
     <row r="6">
@@ -6428,22 +2414,22 @@
         </is>
       </c>
       <c r="D6">
-        <v>259757.0994106</v>
+        <v>4338924.26459181</v>
       </c>
       <c r="E6">
-        <v>12820.06298724108</v>
+        <v>235048.8300177802</v>
       </c>
       <c r="F6">
-        <v>234476.4923051903</v>
+        <v>3875418.186019531</v>
       </c>
       <c r="G6">
-        <v>285037.7065160097</v>
+        <v>4802430.34316409</v>
       </c>
       <c r="H6">
-        <v>164354014.9968288</v>
+        <v>55247952492.72735</v>
       </c>
       <c r="I6">
-        <v>0.0493540427435106</v>
+        <v>0.05417214398875726</v>
       </c>
     </row>
     <row r="7">
@@ -6461,22 +2447,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>1761.67673115</v>
+        <v>22043.54725945</v>
       </c>
       <c r="E7">
-        <v>1013.240774733644</v>
+        <v>12377.39765776439</v>
       </c>
       <c r="F7">
-        <v>-236.3900454887253</v>
+        <v>-2364.143052584805</v>
       </c>
       <c r="G7">
-        <v>3759.743507788725</v>
+        <v>46451.2375714848</v>
       </c>
       <c r="H7">
-        <v>1026656.867582836</v>
+        <v>153199972.7784315</v>
       </c>
       <c r="I7">
-        <v>0.5751570403454292</v>
+        <v>0.5614975444779308</v>
       </c>
     </row>
     <row r="8">
@@ -6494,19 +2480,19 @@
         </is>
       </c>
       <c r="D8">
-        <v>96.89532887</v>
+        <v>3391.33651045</v>
       </c>
       <c r="E8">
-        <v>102.6823730176802</v>
+        <v>3593.883055618806</v>
       </c>
       <c r="F8">
-        <v>-105.5898485815139</v>
+        <v>-3695.644700352987</v>
       </c>
       <c r="G8">
-        <v>299.380506321514</v>
+        <v>10478.31772125299</v>
       </c>
       <c r="H8">
-        <v>10543.66972854201</v>
+        <v>12915995.41746397</v>
       </c>
       <c r="I8">
         <v>1.059724696898902</v>
@@ -6527,22 +2513,22 @@
         </is>
       </c>
       <c r="D9">
-        <v>2498.15698059</v>
+        <v>83455.3265982</v>
       </c>
       <c r="E9">
-        <v>1380.697538756612</v>
+        <v>48300.66678843134</v>
       </c>
       <c r="F9">
-        <v>-224.5185665933873</v>
+        <v>-11791.48936697042</v>
       </c>
       <c r="G9">
-        <v>5220.832527773387</v>
+        <v>178702.1425633704</v>
       </c>
       <c r="H9">
-        <v>1906325.693528565</v>
+        <v>2332954412.207074</v>
       </c>
       <c r="I9">
-        <v>0.5526864602522004</v>
+        <v>0.5787607425105099</v>
       </c>
     </row>
     <row r="10">
@@ -6560,22 +2546,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>1668.32725431</v>
+        <v>39955.2576096</v>
       </c>
       <c r="E10">
-        <v>1042.082871330296</v>
+        <v>27676.28799354192</v>
       </c>
       <c r="F10">
-        <v>-386.6148834624339</v>
+        <v>-14621.17961986118</v>
       </c>
       <c r="G10">
-        <v>3723.269392082434</v>
+        <v>94531.69483906118</v>
       </c>
       <c r="H10">
-        <v>1085936.710719995</v>
+        <v>765976917.1014726</v>
       </c>
       <c r="I10">
-        <v>0.6246273736991063</v>
+        <v>0.6926820060569995</v>
       </c>
     </row>
     <row r="11">
@@ -6593,22 +2579,22 @@
         </is>
       </c>
       <c r="D11">
-        <v>98330.24473019999</v>
+        <v>1589944.92624243</v>
       </c>
       <c r="E11">
-        <v>7937.584045296284</v>
+        <v>140070.5754930885</v>
       </c>
       <c r="F11">
-        <v>82677.67392652969</v>
+        <v>1313731.838241725</v>
       </c>
       <c r="G11">
-        <v>113982.8155338703</v>
+        <v>1866158.014243135</v>
       </c>
       <c r="H11">
-        <v>63005240.47614212</v>
+        <v>19619766118.96502</v>
       </c>
       <c r="I11">
-        <v>0.08072372917483879</v>
+        <v>0.08809775306124723</v>
       </c>
     </row>
     <row r="12">
@@ -6626,22 +2612,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>90334.05234912</v>
+        <v>1461700.99799859</v>
       </c>
       <c r="E12">
-        <v>7689.443576594352</v>
+        <v>138669.7166050709</v>
       </c>
       <c r="F12">
-        <v>75170.80376660018</v>
+        <v>1188250.342849685</v>
       </c>
       <c r="G12">
-        <v>105497.3009316398</v>
+        <v>1735151.653147495</v>
       </c>
       <c r="H12">
-        <v>59127542.51762813</v>
+        <v>19229290303.33067</v>
       </c>
       <c r="I12">
-        <v>0.08512231408457632</v>
+        <v>0.09486872951098897</v>
       </c>
     </row>
     <row r="13">
@@ -6659,22 +2645,22 @@
         </is>
       </c>
       <c r="D13">
-        <v>86647.96542678001</v>
+        <v>1426677.70109428</v>
       </c>
       <c r="E13">
-        <v>7356.382165867813</v>
+        <v>139433.1563598033</v>
       </c>
       <c r="F13">
-        <v>72141.49947278009</v>
+        <v>1151721.575924888</v>
       </c>
       <c r="G13">
-        <v>101154.4313807799</v>
+        <v>1701633.826263672</v>
       </c>
       <c r="H13">
-        <v>54116358.57029801</v>
+        <v>19441605092.45736</v>
       </c>
       <c r="I13">
-        <v>0.08489965263043786</v>
+        <v>0.09773276490748843</v>
       </c>
     </row>
     <row r="14">
@@ -6692,22 +2678,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>100947.11923189</v>
+        <v>1502059.24551985</v>
       </c>
       <c r="E14">
-        <v>8660.571563729116</v>
+        <v>130823.0576150589</v>
       </c>
       <c r="F14">
-        <v>83868.84845983374</v>
+        <v>1244081.860916811</v>
       </c>
       <c r="G14">
-        <v>118025.3900039463</v>
+        <v>1760036.630122889</v>
       </c>
       <c r="H14">
-        <v>75005499.81047338</v>
+        <v>17114672403.75302</v>
       </c>
       <c r="I14">
-        <v>0.08579315219322448</v>
+        <v>0.0870958039806094</v>
       </c>
     </row>
     <row r="15">
@@ -6725,22 +2711,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>9762.081348129999</v>
+        <v>186296.66621685</v>
       </c>
       <c r="E15">
-        <v>2900.113576090164</v>
+        <v>62253.80223743566</v>
       </c>
       <c r="F15">
-        <v>4043.183402685649</v>
+        <v>63534.87349018439</v>
       </c>
       <c r="G15">
-        <v>15480.97929357435</v>
+        <v>309058.4589435156</v>
       </c>
       <c r="H15">
-        <v>8410658.754222481</v>
+        <v>3875535893.017749</v>
       </c>
       <c r="I15">
-        <v>0.2970794313904896</v>
+        <v>0.3341648753122184</v>
       </c>
     </row>
     <row r="16">
@@ -6758,22 +2744,22 @@
         </is>
       </c>
       <c r="D16">
-        <v>6240.37832053</v>
+        <v>109719.83882585</v>
       </c>
       <c r="E16">
-        <v>1762.010023864712</v>
+        <v>31900.92617273248</v>
       </c>
       <c r="F16">
-        <v>2765.771122932795</v>
+        <v>46812.59869183818</v>
       </c>
       <c r="G16">
-        <v>9714.985518127203</v>
+        <v>172627.0789598618</v>
       </c>
       <c r="H16">
-        <v>3104679.324199724</v>
+        <v>1017669090.678128</v>
       </c>
       <c r="I16">
-        <v>0.2823562824817748</v>
+        <v>0.2907489339586655</v>
       </c>
     </row>
     <row r="17">
@@ -6791,22 +2777,22 @@
         </is>
       </c>
       <c r="D17">
-        <v>3695.01856301</v>
+        <v>79433.29968924</v>
       </c>
       <c r="E17">
-        <v>1758.807726186343</v>
+        <v>37819.64647571155</v>
       </c>
       <c r="F17">
-        <v>226.7261572762977</v>
+        <v>4854.600320172904</v>
       </c>
       <c r="G17">
-        <v>7163.310968743703</v>
+        <v>154011.9990583071</v>
       </c>
       <c r="H17">
-        <v>3093404.617692774</v>
+        <v>1430325659.547801</v>
       </c>
       <c r="I17">
-        <v>0.4759942869552461</v>
+        <v>0.4761182857022189</v>
       </c>
     </row>
     <row r="18">
@@ -6824,22 +2810,22 @@
         </is>
       </c>
       <c r="D18">
-        <v>6549.13985814</v>
+        <v>104600.1619034</v>
       </c>
       <c r="E18">
-        <v>2291.62091094785</v>
+        <v>41072.33490759685</v>
       </c>
       <c r="F18">
-        <v>2030.163005852225</v>
+        <v>23607.30229466473</v>
       </c>
       <c r="G18">
-        <v>11068.11671042777</v>
+        <v>185593.0215121353</v>
       </c>
       <c r="H18">
-        <v>5251526.399493456</v>
+        <v>1686936694.761799</v>
       </c>
       <c r="I18">
-        <v>0.3499117381192538</v>
+        <v>0.3926603378064351</v>
       </c>
     </row>
     <row r="19">
@@ -6857,22 +2843,22 @@
         </is>
       </c>
       <c r="D19">
-        <v>63426.13493735</v>
+        <v>1228094.47997741</v>
       </c>
       <c r="E19">
-        <v>6316.339996038297</v>
+        <v>135682.2770014289</v>
       </c>
       <c r="F19">
-        <v>50970.5869464432</v>
+        <v>960534.9259054633</v>
       </c>
       <c r="G19">
-        <v>75881.68292825681</v>
+        <v>1495654.034049357</v>
       </c>
       <c r="H19">
-        <v>39896150.94555307</v>
+        <v>18409680292.29248</v>
       </c>
       <c r="I19">
-        <v>0.09958576227729066</v>
+        <v>0.1104819533134981</v>
       </c>
     </row>
     <row r="20">
@@ -6890,22 +2876,22 @@
         </is>
       </c>
       <c r="D20">
-        <v>76117.90706201999</v>
+        <v>1463380.97092739</v>
       </c>
       <c r="E20">
-        <v>7499.451464844291</v>
+        <v>162413.7962400301</v>
       </c>
       <c r="F20">
-        <v>61329.3146676219</v>
+        <v>1143108.022555092</v>
       </c>
       <c r="G20">
-        <v>90906.49945641808</v>
+        <v>1783653.919299688</v>
       </c>
       <c r="H20">
-        <v>56241772.27355518</v>
+        <v>26378241209.09803</v>
       </c>
       <c r="I20">
-        <v>0.09852414174674856</v>
+        <v>0.110985313781348</v>
       </c>
     </row>
     <row r="21">
@@ -6923,22 +2909,22 @@
         </is>
       </c>
       <c r="D21">
-        <v>64272.57492896</v>
+        <v>1227746.1246371</v>
       </c>
       <c r="E21">
-        <v>6599.870904306595</v>
+        <v>149857.8569739801</v>
       </c>
       <c r="F21">
-        <v>51257.91630799588</v>
+        <v>932232.9428697168</v>
       </c>
       <c r="G21">
-        <v>77287.23354992412</v>
+        <v>1523259.306404483</v>
       </c>
       <c r="H21">
-        <v>43558295.95351275</v>
+        <v>22457377296.83388</v>
       </c>
       <c r="I21">
-        <v>0.1026856464300891</v>
+        <v>0.1220593198926003</v>
       </c>
     </row>
     <row r="22">
@@ -6956,22 +2942,22 @@
         </is>
       </c>
       <c r="D22">
-        <v>58040.53036008</v>
+        <v>1054350.85463044</v>
       </c>
       <c r="E22">
-        <v>6239.587227334642</v>
+        <v>122921.3122853602</v>
       </c>
       <c r="F22">
-        <v>45736.3354937078</v>
+        <v>811955.3684413107</v>
       </c>
       <c r="G22">
-        <v>70344.7252264522</v>
+        <v>1296746.340819569</v>
       </c>
       <c r="H22">
-        <v>38932448.76751761</v>
+        <v>15109649013.95503</v>
       </c>
       <c r="I22">
-        <v>0.1075039664287114</v>
+        <v>0.1165848272854535</v>
       </c>
     </row>
     <row r="23">
@@ -6989,22 +2975,22 @@
         </is>
       </c>
       <c r="D23">
-        <v>292293.1046609</v>
+        <v>4657794.45534807</v>
       </c>
       <c r="E23">
-        <v>13197.35119792997</v>
+        <v>240208.9756760301</v>
       </c>
       <c r="F23">
-        <v>266268.5015993533</v>
+        <v>4184112.793775712</v>
       </c>
       <c r="G23">
-        <v>318317.7077224467</v>
+        <v>5131476.116920427</v>
       </c>
       <c r="H23">
-        <v>174170078.6415035</v>
+        <v>57700351995.32763</v>
       </c>
       <c r="I23">
-        <v>0.04515108631536382</v>
+        <v>0.05157139886244286</v>
       </c>
     </row>
     <row r="24">
@@ -7022,22 +3008,22 @@
         </is>
       </c>
       <c r="D24">
-        <v>292827.09995855</v>
+        <v>4714727.06566103</v>
       </c>
       <c r="E24">
-        <v>15087.03379484407</v>
+        <v>270171.917712031</v>
       </c>
       <c r="F24">
-        <v>263076.1249334599</v>
+        <v>4181959.784455745</v>
       </c>
       <c r="G24">
-        <v>322578.0749836401</v>
+        <v>5247494.346866315</v>
       </c>
       <c r="H24">
-        <v>227618588.7267671</v>
+        <v>72992865120.19644</v>
       </c>
       <c r="I24">
-        <v>0.0515219861719754</v>
+        <v>0.05730382988228216</v>
       </c>
     </row>
     <row r="25">
@@ -7055,22 +3041,22 @@
         </is>
       </c>
       <c r="D25">
-        <v>261534.12509579</v>
+        <v>4217891.48926943</v>
       </c>
       <c r="E25">
-        <v>14181.50403892878</v>
+        <v>281075.0678333646</v>
       </c>
       <c r="F25">
-        <v>233568.8153988917</v>
+        <v>3663623.669829422</v>
       </c>
       <c r="G25">
-        <v>289499.4347926882</v>
+        <v>4772159.308709438</v>
       </c>
       <c r="H25">
-        <v>201115056.8061534</v>
+        <v>79003193757.5305</v>
       </c>
       <c r="I25">
-        <v>0.05422429686273116</v>
+        <v>0.06663876217499586</v>
       </c>
     </row>
     <row r="26">
@@ -7088,22 +3074,22 @@
         </is>
       </c>
       <c r="D26">
-        <v>300849.50264591</v>
+        <v>4767127.72680016</v>
       </c>
       <c r="E26">
-        <v>15999.42043444954</v>
+        <v>258909.108222497</v>
       </c>
       <c r="F26">
-        <v>269299.3408159621</v>
+        <v>4256570.216474421</v>
       </c>
       <c r="G26">
-        <v>332399.664475858</v>
+        <v>5277685.237125898</v>
       </c>
       <c r="H26">
-        <v>255981454.2382815</v>
+        <v>67033926320.56866</v>
       </c>
       <c r="I26">
-        <v>0.05318081065030156</v>
+        <v>0.05431134281696384</v>
       </c>
     </row>
     <row r="27">
@@ -7121,22 +3107,22 @@
         </is>
       </c>
       <c r="D27">
-        <v>59409.71693046</v>
+        <v>1159705.37219255</v>
       </c>
       <c r="E27">
-        <v>5993.978261845647</v>
+        <v>121069.602400462</v>
       </c>
       <c r="F27">
-        <v>47589.85227091073</v>
+        <v>920961.3774290013</v>
       </c>
       <c r="G27">
-        <v>71229.58159000927</v>
+        <v>1398449.366956099</v>
       </c>
       <c r="H27">
-        <v>35927775.40347816</v>
+        <v>14657848625.40596</v>
       </c>
       <c r="I27">
-        <v>0.1008922205244925</v>
+        <v>0.1043968626027546</v>
       </c>
     </row>
     <row r="28">
@@ -7154,22 +3140,22 @@
         </is>
       </c>
       <c r="D28">
-        <v>63655.49703445</v>
+        <v>1176235.89630596</v>
       </c>
       <c r="E28">
-        <v>6906.042966569416</v>
+        <v>124139.2635559256</v>
       </c>
       <c r="F28">
-        <v>50037.08041163966</v>
+        <v>931438.6631382594</v>
       </c>
       <c r="G28">
-        <v>77273.91365726035</v>
+        <v>1421033.12947366</v>
       </c>
       <c r="H28">
-        <v>47693429.45610291</v>
+        <v>15410556756.20755</v>
       </c>
       <c r="I28">
-        <v>0.1084909126203493</v>
+        <v>0.1055394278866956</v>
       </c>
     </row>
     <row r="29">
@@ -7187,22 +3173,22 @@
         </is>
       </c>
       <c r="D29">
-        <v>60551.21816547</v>
+        <v>1203896.44819147</v>
       </c>
       <c r="E29">
-        <v>6013.053997185993</v>
+        <v>123945.7798370151</v>
       </c>
       <c r="F29">
-        <v>48693.73698477993</v>
+        <v>959480.7565094811</v>
       </c>
       <c r="G29">
-        <v>72408.69934616008</v>
+        <v>1448312.139873459</v>
       </c>
       <c r="H29">
-        <v>36156818.37307444</v>
+        <v>15362556339.40583</v>
       </c>
       <c r="I29">
-        <v>0.0993052523031651</v>
+        <v>0.1029538545638292</v>
       </c>
     </row>
     <row r="30">
@@ -7220,22 +3206,22 @@
         </is>
       </c>
       <c r="D30">
-        <v>69838.94431741</v>
+        <v>1353575.10869867</v>
       </c>
       <c r="E30">
-        <v>8168.955236257648</v>
+        <v>202887.8040520966</v>
       </c>
       <c r="F30">
-        <v>53730.11957957211</v>
+        <v>953489.1757492712</v>
       </c>
       <c r="G30">
-        <v>85947.76905524789</v>
+        <v>1753661.041648069</v>
       </c>
       <c r="H30">
-        <v>66731829.65198124</v>
+        <v>41163461033.08193</v>
       </c>
       <c r="I30">
-        <v>0.1169684810688243</v>
+        <v>0.1498903184228567</v>
       </c>
     </row>
     <row r="31">
@@ -7253,22 +3239,22 @@
         </is>
       </c>
       <c r="D31">
-        <v>28032.15923914</v>
+        <v>467992.32411522</v>
       </c>
       <c r="E31">
-        <v>5769.87329621653</v>
+        <v>136412.8144104876</v>
       </c>
       <c r="F31">
-        <v>16654.21983316239</v>
+        <v>198992.1820186594</v>
       </c>
       <c r="G31">
-        <v>39410.09864511761</v>
+        <v>736992.4662117807</v>
       </c>
       <c r="H31">
-        <v>33291437.8543926</v>
+        <v>18608455935.39013</v>
       </c>
       <c r="I31">
-        <v>0.2058304980003225</v>
+        <v>0.2914851534550012</v>
       </c>
     </row>
     <row r="32">
@@ -7286,22 +3272,22 @@
         </is>
       </c>
       <c r="D32">
-        <v>25789.89221866</v>
+        <v>352350.76597371</v>
       </c>
       <c r="E32">
-        <v>4349.026941761726</v>
+        <v>59595.66632760566</v>
       </c>
       <c r="F32">
-        <v>17213.80007972578</v>
+        <v>234830.7017499442</v>
       </c>
       <c r="G32">
-        <v>34365.98435759422</v>
+        <v>469870.8301974757</v>
       </c>
       <c r="H32">
-        <v>18914035.34016936</v>
+        <v>3551643445.031311</v>
       </c>
       <c r="I32">
-        <v>0.1686330018322075</v>
+        <v>0.169137325877283</v>
       </c>
     </row>
     <row r="33">
@@ -7319,22 +3305,22 @@
         </is>
       </c>
       <c r="D33">
-        <v>26528.49962733</v>
+        <v>362613.73289262</v>
       </c>
       <c r="E33">
-        <v>4957.361660875321</v>
+        <v>67507.27844983836</v>
       </c>
       <c r="F33">
-        <v>16752.79785794418</v>
+        <v>229492.313368836</v>
       </c>
       <c r="G33">
-        <v>36304.20139671582</v>
+        <v>495735.152416404</v>
       </c>
       <c r="H33">
-        <v>24575434.63671652</v>
+        <v>4557232643.70401</v>
       </c>
       <c r="I33">
-        <v>0.1868692813583842</v>
+        <v>0.1861685654079437</v>
       </c>
     </row>
     <row r="34">
@@ -7352,22 +3338,22 @@
         </is>
       </c>
       <c r="D34">
-        <v>37403.39887985</v>
+        <v>538957.113196</v>
       </c>
       <c r="E34">
-        <v>5700.350291634797</v>
+        <v>94516.86971491286</v>
       </c>
       <c r="F34">
-        <v>26162.55581773338</v>
+        <v>352573.9534194873</v>
       </c>
       <c r="G34">
-        <v>48644.24194196662</v>
+        <v>725340.2729725126</v>
       </c>
       <c r="H34">
-        <v>32493993.44734092</v>
+        <v>8933438660.705811</v>
       </c>
       <c r="I34">
-        <v>0.1524019330421251</v>
+        <v>0.1753699272181984</v>
       </c>
     </row>
     <row r="35">
@@ -7385,22 +3371,22 @@
         </is>
       </c>
       <c r="D35">
-        <v>14000.94688724</v>
+        <v>240104.5928872</v>
       </c>
       <c r="E35">
-        <v>3957.407507431382</v>
+        <v>66983.32897886263</v>
       </c>
       <c r="F35">
-        <v>6197.111254689671</v>
+        <v>108016.3789515638</v>
       </c>
       <c r="G35">
-        <v>21804.78251979033</v>
+        <v>372192.8068228362</v>
       </c>
       <c r="H35">
-        <v>15661074.17987427</v>
+        <v>4486766361.090538</v>
       </c>
       <c r="I35">
-        <v>0.2826528476468997</v>
+        <v>0.2789756254697346</v>
       </c>
     </row>
     <row r="36">
@@ -7418,22 +3404,22 @@
         </is>
       </c>
       <c r="D36">
-        <v>10636.0459403</v>
+        <v>158219.28060171</v>
       </c>
       <c r="E36">
-        <v>3403.794153048275</v>
+        <v>43421.02355802521</v>
       </c>
       <c r="F36">
-        <v>3923.911784910604</v>
+        <v>72594.90903835269</v>
       </c>
       <c r="G36">
-        <v>17348.1800956894</v>
+        <v>243843.6521650673</v>
       </c>
       <c r="H36">
-        <v>11585814.63632563</v>
+        <v>1885385286.826581</v>
       </c>
       <c r="I36">
-        <v>0.3200243936660044</v>
+        <v>0.2744357286475738</v>
       </c>
     </row>
     <row r="37">
@@ -7451,22 +3437,22 @@
         </is>
       </c>
       <c r="D37">
-        <v>12967.27846432</v>
+        <v>156929.24281995</v>
       </c>
       <c r="E37">
-        <v>5185.625097043435</v>
+        <v>59862.86822124248</v>
       </c>
       <c r="F37">
-        <v>2741.451118169072</v>
+        <v>38882.26807339063</v>
       </c>
       <c r="G37">
-        <v>23193.10581047093</v>
+        <v>274976.2175665093</v>
       </c>
       <c r="H37">
-        <v>26890707.64708673</v>
+        <v>3583562991.673843</v>
       </c>
       <c r="I37">
-        <v>0.3999008050387671</v>
+        <v>0.3814640735246846</v>
       </c>
     </row>
     <row r="38">
@@ -7484,22 +3470,22 @@
         </is>
       </c>
       <c r="D38">
-        <v>12423.05113398</v>
+        <v>324520.2515965</v>
       </c>
       <c r="E38">
-        <v>3995.778989652155</v>
+        <v>146083.6706173168</v>
       </c>
       <c r="F38">
-        <v>4543.548605951779</v>
+        <v>36449.60131436482</v>
       </c>
       <c r="G38">
-        <v>20302.55366200822</v>
+        <v>612590.9018786352</v>
       </c>
       <c r="H38">
-        <v>15966249.7341456</v>
+        <v>21340438821.0287</v>
       </c>
       <c r="I38">
-        <v>0.3216423201159295</v>
+        <v>0.4501527097265824</v>
       </c>
     </row>
     <row r="39">
@@ -7517,22 +3503,22 @@
         </is>
       </c>
       <c r="D39">
-        <v>10649.34072323</v>
+        <v>168416.41742349</v>
       </c>
       <c r="E39">
-        <v>2866.959821331561</v>
+        <v>45831.84784957123</v>
       </c>
       <c r="F39">
-        <v>4995.820541448395</v>
+        <v>78038.00512137743</v>
       </c>
       <c r="G39">
-        <v>16302.8609050116</v>
+        <v>258794.8297256026</v>
       </c>
       <c r="H39">
-        <v>8219458.617129494</v>
+        <v>2100558277.306247</v>
       </c>
       <c r="I39">
-        <v>0.2692147707395353</v>
+        <v>0.2721340861581515</v>
       </c>
     </row>
     <row r="40">
@@ -7550,22 +3536,22 @@
         </is>
       </c>
       <c r="D40">
-        <v>16304.94298204</v>
+        <v>247057.00589732</v>
       </c>
       <c r="E40">
-        <v>3535.362218753651</v>
+        <v>56548.1848703646</v>
       </c>
       <c r="F40">
-        <v>9333.362318468344</v>
+        <v>135546.4426766466</v>
       </c>
       <c r="G40">
-        <v>23276.52364561165</v>
+        <v>358567.5691179933</v>
       </c>
       <c r="H40">
-        <v>12498786.01779074</v>
+        <v>3197697212.132931</v>
       </c>
       <c r="I40">
-        <v>0.2168276345797637</v>
+        <v>0.2288871941314902</v>
       </c>
     </row>
     <row r="41">
@@ -7583,22 +3569,22 @@
         </is>
       </c>
       <c r="D41">
-        <v>9203.604531659999</v>
+        <v>128110.92882951</v>
       </c>
       <c r="E41">
-        <v>2737.934594772227</v>
+        <v>32936.01133875363</v>
       </c>
       <c r="F41">
-        <v>3804.516489765638</v>
+        <v>63162.54572850488</v>
       </c>
       <c r="G41">
-        <v>14602.69257355436</v>
+        <v>193059.3119305151</v>
       </c>
       <c r="H41">
-        <v>7496285.84525056</v>
+        <v>1084780842.906507</v>
       </c>
       <c r="I41">
-        <v>0.2974850326688692</v>
+        <v>0.2570897864817206</v>
       </c>
     </row>
     <row r="42">
@@ -7616,22 +3602,22 @@
         </is>
       </c>
       <c r="D42">
-        <v>15004.98034913</v>
+        <v>228366.60641373</v>
       </c>
       <c r="E42">
-        <v>3558.04226756471</v>
+        <v>56735.42668928955</v>
       </c>
       <c r="F42">
-        <v>7988.675614881428</v>
+        <v>116486.8104628699</v>
       </c>
       <c r="G42">
-        <v>22021.28508337857</v>
+        <v>340246.40236459</v>
       </c>
       <c r="H42">
-        <v>12659664.77777702</v>
+        <v>3218908641.615749</v>
       </c>
       <c r="I42">
-        <v>0.2371240871215808</v>
+        <v>0.2484401181953128</v>
       </c>
     </row>
     <row r="43">
@@ -7649,22 +3635,22 @@
         </is>
       </c>
       <c r="D43">
-        <v>1041581.0592419</v>
+        <v>17558302.66661964</v>
       </c>
       <c r="E43">
-        <v>33594.10184261204</v>
+        <v>649207.0717726684</v>
       </c>
       <c r="F43">
-        <v>975334.9502651014</v>
+        <v>16278094.53286301</v>
       </c>
       <c r="G43">
-        <v>1107827.168218699</v>
+        <v>18838510.80037627</v>
       </c>
       <c r="H43">
-        <v>1128563678.61179</v>
+        <v>421469822039.6426</v>
       </c>
       <c r="I43">
-        <v>0.03225298842037607</v>
+        <v>0.03697436387213475</v>
       </c>
     </row>
     <row r="44">
@@ -7682,22 +3668,22 @@
         </is>
       </c>
       <c r="D44">
-        <v>1078186.40537896</v>
+        <v>17126444.82187782</v>
       </c>
       <c r="E44">
-        <v>39053.1399932727</v>
+        <v>636861.4801119509</v>
       </c>
       <c r="F44">
-        <v>1001175.310395646</v>
+        <v>15870581.6583892</v>
       </c>
       <c r="G44">
-        <v>1155197.500362274</v>
+        <v>18382307.98536644</v>
       </c>
       <c r="H44">
-        <v>1525147743.334156</v>
+        <v>405592544850.3848</v>
       </c>
       <c r="I44">
-        <v>0.03622113931175596</v>
+        <v>0.03718585420007341</v>
       </c>
     </row>
     <row r="45">
@@ -7715,22 +3701,22 @@
         </is>
       </c>
       <c r="D45">
-        <v>1069219.72634086</v>
+        <v>17461784.11008515</v>
       </c>
       <c r="E45">
-        <v>32691.8444563985</v>
+        <v>625465.1811521698</v>
       </c>
       <c r="F45">
-        <v>1004752.829721404</v>
+        <v>16228393.95291052</v>
       </c>
       <c r="G45">
-        <v>1133686.622960315</v>
+        <v>18695174.26725978</v>
       </c>
       <c r="H45">
-        <v>1068756693.961354</v>
+        <v>391206692833.7166</v>
       </c>
       <c r="I45">
-        <v>0.03057542210549954</v>
+        <v>0.03581908796999322</v>
       </c>
     </row>
     <row r="46">
@@ -7748,22 +3734,22 @@
         </is>
       </c>
       <c r="D46">
-        <v>1051748.71308172</v>
+        <v>17131305.24348919</v>
       </c>
       <c r="E46">
-        <v>32162.41474977502</v>
+        <v>634002.6145632876</v>
       </c>
       <c r="F46">
-        <v>988325.8288369621</v>
+        <v>15881079.6386284</v>
       </c>
       <c r="G46">
-        <v>1115171.597326478</v>
+        <v>18381530.84834999</v>
       </c>
       <c r="H46">
-        <v>1034420922.536546</v>
+        <v>401959315273.0846</v>
       </c>
       <c r="I46">
-        <v>0.03057994209998718</v>
+        <v>0.03700842437585089</v>
       </c>
     </row>
     <row r="47">
@@ -7781,22 +3767,22 @@
         </is>
       </c>
       <c r="D47">
-        <v>487329.02084553</v>
+        <v>10395839.52150888</v>
       </c>
       <c r="E47">
-        <v>19254.3831561773</v>
+        <v>416827.5846446889</v>
       </c>
       <c r="F47">
-        <v>449360.2139751755</v>
+        <v>9573873.638144135</v>
       </c>
       <c r="G47">
-        <v>525297.8277158845</v>
+        <v>11217805.40487362</v>
       </c>
       <c r="H47">
-        <v>370731270.724884</v>
+        <v>173745235320.7253</v>
       </c>
       <c r="I47">
-        <v>0.03951002778937807</v>
+        <v>0.04009561553756934</v>
       </c>
     </row>
     <row r="48">
@@ -7814,22 +3800,22 @@
         </is>
       </c>
       <c r="D48">
-        <v>521263.58232527</v>
+        <v>11125875.61681866</v>
       </c>
       <c r="E48">
-        <v>19213.45740128375</v>
+        <v>448836.1111623354</v>
       </c>
       <c r="F48">
-        <v>483375.4792651063</v>
+        <v>10240790.31011559</v>
       </c>
       <c r="G48">
-        <v>559151.6853854337</v>
+        <v>12010960.92352173</v>
       </c>
       <c r="H48">
-        <v>369156945.3109452</v>
+        <v>201453854683.3283</v>
       </c>
       <c r="I48">
-        <v>0.03685938947734602</v>
+        <v>0.04034164380589003</v>
       </c>
     </row>
     <row r="49">
@@ -7847,22 +3833,22 @@
         </is>
       </c>
       <c r="D49">
-        <v>514996.39662073</v>
+        <v>11049501.11833252</v>
       </c>
       <c r="E49">
-        <v>20543.15087741736</v>
+        <v>466700.3180435127</v>
       </c>
       <c r="F49">
-        <v>474486.1958084557</v>
+        <v>10129188.37196224</v>
       </c>
       <c r="G49">
-        <v>555506.5974330043</v>
+        <v>11969813.8647028</v>
       </c>
       <c r="H49">
-        <v>422021047.9723335</v>
+        <v>217809186861.9159</v>
       </c>
       <c r="I49">
-        <v>0.03988989245792024</v>
+        <v>0.04223722981204987</v>
       </c>
     </row>
     <row r="50">
@@ -7880,22 +3866,22 @@
         </is>
       </c>
       <c r="D50">
-        <v>521100.284754</v>
+        <v>11249664.56128326</v>
       </c>
       <c r="E50">
-        <v>24273.10538604361</v>
+        <v>583778.3251953793</v>
       </c>
       <c r="F50">
-        <v>473234.7757386789</v>
+        <v>10098479.0725219</v>
       </c>
       <c r="G50">
-        <v>568965.7937693212</v>
+        <v>12400850.05004462</v>
       </c>
       <c r="H50">
-        <v>589183645.0819795</v>
+        <v>340797132967.9221</v>
       </c>
       <c r="I50">
-        <v>0.04658048766467747</v>
+        <v>0.05189295396455689</v>
       </c>
     </row>
   </sheetData>
@@ -7903,1684 +3889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_SEC</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>69168.781286</v>
-      </c>
-      <c r="E2">
-        <v>68923.0768861855</v>
-      </c>
-      <c r="F2">
-        <v>-66744.53122968016</v>
-      </c>
-      <c r="G2">
-        <v>205082.0938016801</v>
-      </c>
-      <c r="H2">
-        <v>4750390527.459039</v>
-      </c>
-      <c r="I2">
-        <v>0.9964477558336824</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>5017599.56210712</v>
-      </c>
-      <c r="E3">
-        <v>261334.6550974789</v>
-      </c>
-      <c r="F3">
-        <v>4502258.978747872</v>
-      </c>
-      <c r="G3">
-        <v>5532940.145466368</v>
-      </c>
-      <c r="H3">
-        <v>68295801954.91827</v>
-      </c>
-      <c r="I3">
-        <v>0.05208360130431225</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>5295630.22433248</v>
-      </c>
-      <c r="E4">
-        <v>260714.2501612506</v>
-      </c>
-      <c r="F4">
-        <v>4781513.052547313</v>
-      </c>
-      <c r="G4">
-        <v>5809747.396117646</v>
-      </c>
-      <c r="H4">
-        <v>67971920237.14318</v>
-      </c>
-      <c r="I4">
-        <v>0.04923195901468252</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>4951708.30679098</v>
-      </c>
-      <c r="E5">
-        <v>292708.2872755204</v>
-      </c>
-      <c r="F5">
-        <v>4374500.284141296</v>
-      </c>
-      <c r="G5">
-        <v>5528916.329440664</v>
-      </c>
-      <c r="H5">
-        <v>85678141439.76857</v>
-      </c>
-      <c r="I5">
-        <v>0.05911258683676662</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>4338924.26459181</v>
-      </c>
-      <c r="E6">
-        <v>235048.8300177802</v>
-      </c>
-      <c r="F6">
-        <v>3875418.186019531</v>
-      </c>
-      <c r="G6">
-        <v>4802430.34316409</v>
-      </c>
-      <c r="H6">
-        <v>55247952492.72735</v>
-      </c>
-      <c r="I6">
-        <v>0.05417214398875726</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>22043.54725945</v>
-      </c>
-      <c r="E7">
-        <v>12377.39765776439</v>
-      </c>
-      <c r="F7">
-        <v>-2364.143052584805</v>
-      </c>
-      <c r="G7">
-        <v>46451.2375714848</v>
-      </c>
-      <c r="H7">
-        <v>153199972.7784315</v>
-      </c>
-      <c r="I7">
-        <v>0.5614975444779308</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>3391.33651045</v>
-      </c>
-      <c r="E8">
-        <v>3593.883055618806</v>
-      </c>
-      <c r="F8">
-        <v>-3695.644700352987</v>
-      </c>
-      <c r="G8">
-        <v>10478.31772125299</v>
-      </c>
-      <c r="H8">
-        <v>12915995.41746397</v>
-      </c>
-      <c r="I8">
-        <v>1.059724696898902</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>83455.3265982</v>
-      </c>
-      <c r="E9">
-        <v>48300.66678843134</v>
-      </c>
-      <c r="F9">
-        <v>-11791.48936697042</v>
-      </c>
-      <c r="G9">
-        <v>178702.1425633704</v>
-      </c>
-      <c r="H9">
-        <v>2332954412.207074</v>
-      </c>
-      <c r="I9">
-        <v>0.5787607425105099</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>39955.2576096</v>
-      </c>
-      <c r="E10">
-        <v>27676.28799354192</v>
-      </c>
-      <c r="F10">
-        <v>-14621.17961986118</v>
-      </c>
-      <c r="G10">
-        <v>94531.69483906118</v>
-      </c>
-      <c r="H10">
-        <v>765976917.1014726</v>
-      </c>
-      <c r="I10">
-        <v>0.6926820060569995</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>1589944.92624243</v>
-      </c>
-      <c r="E11">
-        <v>140070.5754930885</v>
-      </c>
-      <c r="F11">
-        <v>1313731.838241725</v>
-      </c>
-      <c r="G11">
-        <v>1866158.014243135</v>
-      </c>
-      <c r="H11">
-        <v>19619766118.96502</v>
-      </c>
-      <c r="I11">
-        <v>0.08809775306124723</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>1461700.99799859</v>
-      </c>
-      <c r="E12">
-        <v>138669.7166050709</v>
-      </c>
-      <c r="F12">
-        <v>1188250.342849685</v>
-      </c>
-      <c r="G12">
-        <v>1735151.653147495</v>
-      </c>
-      <c r="H12">
-        <v>19229290303.33067</v>
-      </c>
-      <c r="I12">
-        <v>0.09486872951098897</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>1426677.70109428</v>
-      </c>
-      <c r="E13">
-        <v>139433.1563598033</v>
-      </c>
-      <c r="F13">
-        <v>1151721.575924888</v>
-      </c>
-      <c r="G13">
-        <v>1701633.826263672</v>
-      </c>
-      <c r="H13">
-        <v>19441605092.45736</v>
-      </c>
-      <c r="I13">
-        <v>0.09773276490748843</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>1502059.24551985</v>
-      </c>
-      <c r="E14">
-        <v>130823.0576150589</v>
-      </c>
-      <c r="F14">
-        <v>1244081.860916811</v>
-      </c>
-      <c r="G14">
-        <v>1760036.630122889</v>
-      </c>
-      <c r="H14">
-        <v>17114672403.75302</v>
-      </c>
-      <c r="I14">
-        <v>0.0870958039806094</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>186296.66621685</v>
-      </c>
-      <c r="E15">
-        <v>62253.80223743566</v>
-      </c>
-      <c r="F15">
-        <v>63534.87349018439</v>
-      </c>
-      <c r="G15">
-        <v>309058.4589435156</v>
-      </c>
-      <c r="H15">
-        <v>3875535893.017749</v>
-      </c>
-      <c r="I15">
-        <v>0.3341648753122184</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>109719.83882585</v>
-      </c>
-      <c r="E16">
-        <v>31900.92617273248</v>
-      </c>
-      <c r="F16">
-        <v>46812.59869183818</v>
-      </c>
-      <c r="G16">
-        <v>172627.0789598618</v>
-      </c>
-      <c r="H16">
-        <v>1017669090.678128</v>
-      </c>
-      <c r="I16">
-        <v>0.2907489339586655</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>79433.29968924</v>
-      </c>
-      <c r="E17">
-        <v>37819.64647571155</v>
-      </c>
-      <c r="F17">
-        <v>4854.600320172904</v>
-      </c>
-      <c r="G17">
-        <v>154011.9990583071</v>
-      </c>
-      <c r="H17">
-        <v>1430325659.547801</v>
-      </c>
-      <c r="I17">
-        <v>0.4761182857022189</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>104600.1619034</v>
-      </c>
-      <c r="E18">
-        <v>41072.33490759685</v>
-      </c>
-      <c r="F18">
-        <v>23607.30229466473</v>
-      </c>
-      <c r="G18">
-        <v>185593.0215121353</v>
-      </c>
-      <c r="H18">
-        <v>1686936694.761799</v>
-      </c>
-      <c r="I18">
-        <v>0.3926603378064351</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>1228094.47997741</v>
-      </c>
-      <c r="E19">
-        <v>135682.2770014289</v>
-      </c>
-      <c r="F19">
-        <v>960534.9259054633</v>
-      </c>
-      <c r="G19">
-        <v>1495654.034049357</v>
-      </c>
-      <c r="H19">
-        <v>18409680292.29248</v>
-      </c>
-      <c r="I19">
-        <v>0.1104819533134981</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>1463380.97092739</v>
-      </c>
-      <c r="E20">
-        <v>162413.7962400301</v>
-      </c>
-      <c r="F20">
-        <v>1143108.022555092</v>
-      </c>
-      <c r="G20">
-        <v>1783653.919299688</v>
-      </c>
-      <c r="H20">
-        <v>26378241209.09803</v>
-      </c>
-      <c r="I20">
-        <v>0.110985313781348</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>1227746.1246371</v>
-      </c>
-      <c r="E21">
-        <v>149857.8569739801</v>
-      </c>
-      <c r="F21">
-        <v>932232.9428697168</v>
-      </c>
-      <c r="G21">
-        <v>1523259.306404483</v>
-      </c>
-      <c r="H21">
-        <v>22457377296.83388</v>
-      </c>
-      <c r="I21">
-        <v>0.1220593198926003</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>1054350.85463044</v>
-      </c>
-      <c r="E22">
-        <v>122921.3122853602</v>
-      </c>
-      <c r="F22">
-        <v>811955.3684413107</v>
-      </c>
-      <c r="G22">
-        <v>1296746.340819569</v>
-      </c>
-      <c r="H22">
-        <v>15109649013.95503</v>
-      </c>
-      <c r="I22">
-        <v>0.1165848272854535</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>4657794.45534807</v>
-      </c>
-      <c r="E23">
-        <v>240208.9756760301</v>
-      </c>
-      <c r="F23">
-        <v>4184112.793775712</v>
-      </c>
-      <c r="G23">
-        <v>5131476.116920427</v>
-      </c>
-      <c r="H23">
-        <v>57700351995.32763</v>
-      </c>
-      <c r="I23">
-        <v>0.05157139886244286</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>4714727.06566103</v>
-      </c>
-      <c r="E24">
-        <v>270171.917712031</v>
-      </c>
-      <c r="F24">
-        <v>4181959.784455745</v>
-      </c>
-      <c r="G24">
-        <v>5247494.346866315</v>
-      </c>
-      <c r="H24">
-        <v>72992865120.19644</v>
-      </c>
-      <c r="I24">
-        <v>0.05730382988228216</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>4217891.48926943</v>
-      </c>
-      <c r="E25">
-        <v>281075.0678333646</v>
-      </c>
-      <c r="F25">
-        <v>3663623.669829422</v>
-      </c>
-      <c r="G25">
-        <v>4772159.308709438</v>
-      </c>
-      <c r="H25">
-        <v>79003193757.5305</v>
-      </c>
-      <c r="I25">
-        <v>0.06663876217499586</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>4767127.72680016</v>
-      </c>
-      <c r="E26">
-        <v>258909.108222497</v>
-      </c>
-      <c r="F26">
-        <v>4256570.216474421</v>
-      </c>
-      <c r="G26">
-        <v>5277685.237125898</v>
-      </c>
-      <c r="H26">
-        <v>67033926320.56866</v>
-      </c>
-      <c r="I26">
-        <v>0.05431134281696384</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>7</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>1159705.37219255</v>
-      </c>
-      <c r="E27">
-        <v>121069.602400462</v>
-      </c>
-      <c r="F27">
-        <v>920961.3774290013</v>
-      </c>
-      <c r="G27">
-        <v>1398449.366956099</v>
-      </c>
-      <c r="H27">
-        <v>14657848625.40596</v>
-      </c>
-      <c r="I27">
-        <v>0.1043968626027546</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>1176235.89630596</v>
-      </c>
-      <c r="E28">
-        <v>124139.2635559256</v>
-      </c>
-      <c r="F28">
-        <v>931438.6631382594</v>
-      </c>
-      <c r="G28">
-        <v>1421033.12947366</v>
-      </c>
-      <c r="H28">
-        <v>15410556756.20755</v>
-      </c>
-      <c r="I28">
-        <v>0.1055394278866956</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>1203896.44819147</v>
-      </c>
-      <c r="E29">
-        <v>123945.7798370151</v>
-      </c>
-      <c r="F29">
-        <v>959480.7565094811</v>
-      </c>
-      <c r="G29">
-        <v>1448312.139873459</v>
-      </c>
-      <c r="H29">
-        <v>15362556339.40583</v>
-      </c>
-      <c r="I29">
-        <v>0.1029538545638292</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>1353575.10869867</v>
-      </c>
-      <c r="E30">
-        <v>202887.8040520966</v>
-      </c>
-      <c r="F30">
-        <v>953489.1757492712</v>
-      </c>
-      <c r="G30">
-        <v>1753661.041648069</v>
-      </c>
-      <c r="H30">
-        <v>41163461033.08193</v>
-      </c>
-      <c r="I30">
-        <v>0.1498903184228567</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>8</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>467992.32411522</v>
-      </c>
-      <c r="E31">
-        <v>136412.8144104876</v>
-      </c>
-      <c r="F31">
-        <v>198992.1820186594</v>
-      </c>
-      <c r="G31">
-        <v>736992.4662117807</v>
-      </c>
-      <c r="H31">
-        <v>18608455935.39013</v>
-      </c>
-      <c r="I31">
-        <v>0.2914851534550012</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>8</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>352350.76597371</v>
-      </c>
-      <c r="E32">
-        <v>59595.66632760566</v>
-      </c>
-      <c r="F32">
-        <v>234830.7017499442</v>
-      </c>
-      <c r="G32">
-        <v>469870.8301974757</v>
-      </c>
-      <c r="H32">
-        <v>3551643445.031311</v>
-      </c>
-      <c r="I32">
-        <v>0.169137325877283</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>8</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>362613.73289262</v>
-      </c>
-      <c r="E33">
-        <v>67507.27844983836</v>
-      </c>
-      <c r="F33">
-        <v>229492.313368836</v>
-      </c>
-      <c r="G33">
-        <v>495735.152416404</v>
-      </c>
-      <c r="H33">
-        <v>4557232643.70401</v>
-      </c>
-      <c r="I33">
-        <v>0.1861685654079437</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>538957.113196</v>
-      </c>
-      <c r="E34">
-        <v>94516.86971491286</v>
-      </c>
-      <c r="F34">
-        <v>352573.9534194873</v>
-      </c>
-      <c r="G34">
-        <v>725340.2729725126</v>
-      </c>
-      <c r="H34">
-        <v>8933438660.705811</v>
-      </c>
-      <c r="I34">
-        <v>0.1753699272181984</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>9</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>240104.5928872</v>
-      </c>
-      <c r="E35">
-        <v>66983.32897886263</v>
-      </c>
-      <c r="F35">
-        <v>108016.3789515638</v>
-      </c>
-      <c r="G35">
-        <v>372192.8068228362</v>
-      </c>
-      <c r="H35">
-        <v>4486766361.090538</v>
-      </c>
-      <c r="I35">
-        <v>0.2789756254697346</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>9</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>158219.28060171</v>
-      </c>
-      <c r="E36">
-        <v>43421.02355802521</v>
-      </c>
-      <c r="F36">
-        <v>72594.90903835269</v>
-      </c>
-      <c r="G36">
-        <v>243843.6521650673</v>
-      </c>
-      <c r="H36">
-        <v>1885385286.826581</v>
-      </c>
-      <c r="I36">
-        <v>0.2744357286475738</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>9</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>156929.24281995</v>
-      </c>
-      <c r="E37">
-        <v>59862.86822124248</v>
-      </c>
-      <c r="F37">
-        <v>38882.26807339063</v>
-      </c>
-      <c r="G37">
-        <v>274976.2175665093</v>
-      </c>
-      <c r="H37">
-        <v>3583562991.673843</v>
-      </c>
-      <c r="I37">
-        <v>0.3814640735246846</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>324520.2515965</v>
-      </c>
-      <c r="E38">
-        <v>146083.6706173168</v>
-      </c>
-      <c r="F38">
-        <v>36449.60131436482</v>
-      </c>
-      <c r="G38">
-        <v>612590.9018786352</v>
-      </c>
-      <c r="H38">
-        <v>21340438821.0287</v>
-      </c>
-      <c r="I38">
-        <v>0.4501527097265824</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>10</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>168416.41742349</v>
-      </c>
-      <c r="E39">
-        <v>45831.84784957123</v>
-      </c>
-      <c r="F39">
-        <v>78038.00512137743</v>
-      </c>
-      <c r="G39">
-        <v>258794.8297256026</v>
-      </c>
-      <c r="H39">
-        <v>2100558277.306247</v>
-      </c>
-      <c r="I39">
-        <v>0.2721340861581515</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>10</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>247057.00589732</v>
-      </c>
-      <c r="E40">
-        <v>56548.1848703646</v>
-      </c>
-      <c r="F40">
-        <v>135546.4426766466</v>
-      </c>
-      <c r="G40">
-        <v>358567.5691179933</v>
-      </c>
-      <c r="H40">
-        <v>3197697212.132931</v>
-      </c>
-      <c r="I40">
-        <v>0.2288871941314902</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>10</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>128110.92882951</v>
-      </c>
-      <c r="E41">
-        <v>32936.01133875363</v>
-      </c>
-      <c r="F41">
-        <v>63162.54572850488</v>
-      </c>
-      <c r="G41">
-        <v>193059.3119305151</v>
-      </c>
-      <c r="H41">
-        <v>1084780842.906507</v>
-      </c>
-      <c r="I41">
-        <v>0.2570897864817206</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>228366.60641373</v>
-      </c>
-      <c r="E42">
-        <v>56735.42668928955</v>
-      </c>
-      <c r="F42">
-        <v>116486.8104628699</v>
-      </c>
-      <c r="G42">
-        <v>340246.40236459</v>
-      </c>
-      <c r="H42">
-        <v>3218908641.615749</v>
-      </c>
-      <c r="I42">
-        <v>0.2484401181953128</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>11</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>17558302.66661964</v>
-      </c>
-      <c r="E43">
-        <v>649207.0717726684</v>
-      </c>
-      <c r="F43">
-        <v>16278094.53286301</v>
-      </c>
-      <c r="G43">
-        <v>18838510.80037627</v>
-      </c>
-      <c r="H43">
-        <v>421469822039.6426</v>
-      </c>
-      <c r="I43">
-        <v>0.03697436387213475</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>11</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>17126444.82187782</v>
-      </c>
-      <c r="E44">
-        <v>636861.4801119509</v>
-      </c>
-      <c r="F44">
-        <v>15870581.6583892</v>
-      </c>
-      <c r="G44">
-        <v>18382307.98536644</v>
-      </c>
-      <c r="H44">
-        <v>405592544850.3848</v>
-      </c>
-      <c r="I44">
-        <v>0.03718585420007341</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>11</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>17461784.11008515</v>
-      </c>
-      <c r="E45">
-        <v>625465.1811521698</v>
-      </c>
-      <c r="F45">
-        <v>16228393.95291052</v>
-      </c>
-      <c r="G45">
-        <v>18695174.26725978</v>
-      </c>
-      <c r="H45">
-        <v>391206692833.7166</v>
-      </c>
-      <c r="I45">
-        <v>0.03581908796999322</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>17131305.24348919</v>
-      </c>
-      <c r="E46">
-        <v>634002.6145632876</v>
-      </c>
-      <c r="F46">
-        <v>15881079.6386284</v>
-      </c>
-      <c r="G46">
-        <v>18381530.84834999</v>
-      </c>
-      <c r="H46">
-        <v>401959315273.0846</v>
-      </c>
-      <c r="I46">
-        <v>0.03700842437585089</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>12</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>10395839.52150888</v>
-      </c>
-      <c r="E47">
-        <v>416827.5846446889</v>
-      </c>
-      <c r="F47">
-        <v>9573873.638144135</v>
-      </c>
-      <c r="G47">
-        <v>11217805.40487362</v>
-      </c>
-      <c r="H47">
-        <v>173745235320.7253</v>
-      </c>
-      <c r="I47">
-        <v>0.04009561553756934</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>12</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>11125875.61681866</v>
-      </c>
-      <c r="E48">
-        <v>448836.1111623354</v>
-      </c>
-      <c r="F48">
-        <v>10240790.31011559</v>
-      </c>
-      <c r="G48">
-        <v>12010960.92352173</v>
-      </c>
-      <c r="H48">
-        <v>201453854683.3283</v>
-      </c>
-      <c r="I48">
-        <v>0.04034164380589003</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>12</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>11049501.11833252</v>
-      </c>
-      <c r="E49">
-        <v>466700.3180435127</v>
-      </c>
-      <c r="F49">
-        <v>10129188.37196224</v>
-      </c>
-      <c r="G49">
-        <v>11969813.8647028</v>
-      </c>
-      <c r="H49">
-        <v>217809186861.9159</v>
-      </c>
-      <c r="I49">
-        <v>0.04223722981204987</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>11249664.56128326</v>
-      </c>
-      <c r="E50">
-        <v>583778.3251953793</v>
-      </c>
-      <c r="F50">
-        <v>10098479.0725219</v>
-      </c>
-      <c r="G50">
-        <v>12400850.05004462</v>
-      </c>
-      <c r="H50">
-        <v>340797132967.9221</v>
-      </c>
-      <c r="I50">
-        <v>0.05189295396455689</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I50"/>
   <sheetViews>
